--- a/Competencia02/01_Analisis_DiccDatos_y_VarRotas.xlsx
+++ b/Competencia02/01_Analisis_DiccDatos_y_VarRotas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/157e37639f8ad297/! DM en Econ y Fin 2023/^N01b Reparar Zeros^J Var_Rotas y ver_Nulls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://economicasuba-my.sharepoint.com/personal/leandromorinigo_economicas_uba_ar/Documents/!GitRepos/Kaggle2023_DMEyF/Competencia02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="837" documentId="8_{9F538E2C-1618-435A-9CBD-D23493722AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{643486DC-51D7-4F29-82A3-630B7D2874D3}"/>
+  <xr:revisionPtr revIDLastSave="839" documentId="8_{9F538E2C-1618-435A-9CBD-D23493722AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC175830-376D-446A-ACF3-69F8F62E980C}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="1" r:id="rId1"/>
@@ -5228,12 +5228,93 @@
     <xf numFmtId="0" fontId="36" fillId="41" borderId="87" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="28" fillId="41" borderId="102" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="60" borderId="131" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="41" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="41" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="132" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="37" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="42" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="47" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="49" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="54" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="61" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="133" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="134" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="54" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="54" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="37" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5243,40 +5324,7 @@
     <xf numFmtId="0" fontId="9" fillId="45" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5294,67 +5342,19 @@
     <xf numFmtId="0" fontId="9" fillId="18" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="41" borderId="102" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="60" borderId="131" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="41" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="41" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="132" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="37" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="42" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="47" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="49" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="54" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="61" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="133" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="134" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5413,6 +5413,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
@@ -5435,13 +5442,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF8BFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5497,13 +5497,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
@@ -5533,6 +5526,139 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8BFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8BFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8BFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8BFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8BFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8BFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5581,7 +5707,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5609,20 +5749,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
@@ -5637,6 +5763,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF8BFFFF"/>
         </patternFill>
       </fill>
@@ -5645,6 +5785,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF8BFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8BFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5666,160 +5820,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8BFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8BFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8BFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8BFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8BFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8BFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8BFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6538,35 +6538,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMO1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F144" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T157" sqref="T157:Y157"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="244" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="5.875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="3.75" customWidth="1"/>
-    <col min="5" max="5" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" style="244" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" customWidth="1"/>
+    <col min="4" max="4" width="3.69921875" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="83.25" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="12.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="83.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.8984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" style="1" customWidth="1"/>
+    <col min="15" max="17" width="12.09765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.19921875" style="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="25.875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="22.375" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="1029" width="10.75" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="8.75" customWidth="1"/>
+    <col min="20" max="20" width="13.59765625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="25.8984375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="22.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="1029" width="10.69921875" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="33" customHeight="1" thickTop="1">
@@ -6618,13 +6617,13 @@
       <c r="P1" s="438" t="s">
         <v>388</v>
       </c>
-      <c r="Q1" s="492" t="s">
+      <c r="Q1" s="470" t="s">
         <v>376</v>
       </c>
       <c r="R1" s="439" t="s">
         <v>403</v>
       </c>
-      <c r="S1" s="491" t="s">
+      <c r="S1" s="469" t="s">
         <v>404</v>
       </c>
       <c r="T1" s="11"/>
@@ -6632,7 +6631,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="55.9" customHeight="1">
+    <row r="2" spans="1:22" ht="55.95" customHeight="1">
       <c r="A2" s="245">
         <v>30</v>
       </c>
@@ -6643,7 +6642,7 @@
       <c r="D2" s="228">
         <v>1</v>
       </c>
-      <c r="E2" s="485" t="s">
+      <c r="E2" s="501" t="s">
         <v>303</v>
       </c>
       <c r="F2" s="14">
@@ -6667,11 +6666,11 @@
       <c r="N2" s="300"/>
       <c r="O2" s="388"/>
       <c r="P2" s="387"/>
-      <c r="Q2" s="493"/>
+      <c r="Q2" s="471"/>
       <c r="R2" s="440"/>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
-      <c r="U2" s="485" t="s">
+      <c r="U2" s="501" t="s">
         <v>303</v>
       </c>
       <c r="V2" s="261" t="str">
@@ -6679,7 +6678,7 @@
         <v>CLIENTE</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="35.450000000000003" customHeight="1">
+    <row r="3" spans="1:22" ht="35.4" customHeight="1">
       <c r="A3" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -6690,7 +6689,7 @@
       <c r="D3" s="229">
         <v>1</v>
       </c>
-      <c r="E3" s="485"/>
+      <c r="E3" s="501"/>
       <c r="F3" s="20">
         <v>2</v>
       </c>
@@ -6712,7 +6711,7 @@
       <c r="N3" s="300"/>
       <c r="O3" s="388"/>
       <c r="P3" s="387"/>
-      <c r="Q3" s="493" t="s">
+      <c r="Q3" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R3" s="440" t="s">
@@ -6720,13 +6719,13 @@
       </c>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="485"/>
+      <c r="U3" s="501"/>
       <c r="V3" s="262" t="str">
         <f>IF(U3="",V2,U3)</f>
         <v>CLIENTE</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="70.900000000000006" customHeight="1">
+    <row r="4" spans="1:22" ht="70.95" customHeight="1">
       <c r="A4" s="245">
         <v>11</v>
       </c>
@@ -6737,7 +6736,7 @@
       <c r="D4" s="230">
         <v>1</v>
       </c>
-      <c r="E4" s="485"/>
+      <c r="E4" s="501"/>
       <c r="F4" s="14">
         <v>3</v>
       </c>
@@ -6763,7 +6762,7 @@
         <v>10</v>
       </c>
       <c r="P4" s="387"/>
-      <c r="Q4" s="493" t="s">
+      <c r="Q4" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R4" s="440" t="s">
@@ -6771,7 +6770,7 @@
       </c>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="485"/>
+      <c r="U4" s="501"/>
       <c r="V4" s="263" t="str">
         <f t="shared" ref="V4:V67" si="0">IF(U4="",V3,U4)</f>
         <v>CLIENTE</v>
@@ -6788,7 +6787,7 @@
       <c r="D5" s="230">
         <v>1</v>
       </c>
-      <c r="E5" s="485"/>
+      <c r="E5" s="501"/>
       <c r="F5" s="14">
         <v>4</v>
       </c>
@@ -6810,7 +6809,7 @@
       <c r="N5" s="300"/>
       <c r="O5" s="388"/>
       <c r="P5" s="387"/>
-      <c r="Q5" s="493" t="s">
+      <c r="Q5" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R5" s="440" t="s">
@@ -6818,7 +6817,7 @@
       </c>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="485"/>
+      <c r="U5" s="501"/>
       <c r="V5" s="263" t="str">
         <f t="shared" si="0"/>
         <v>CLIENTE</v>
@@ -6835,7 +6834,7 @@
       <c r="D6" s="230">
         <v>1</v>
       </c>
-      <c r="E6" s="485"/>
+      <c r="E6" s="501"/>
       <c r="F6" s="14">
         <v>5</v>
       </c>
@@ -6863,19 +6862,19 @@
         <v>398</v>
       </c>
       <c r="P6" s="390"/>
-      <c r="Q6" s="494">
+      <c r="Q6" s="472">
         <v>1</v>
       </c>
-      <c r="R6" s="490"/>
+      <c r="R6" s="468"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="485"/>
+      <c r="U6" s="501"/>
       <c r="V6" s="263" t="str">
         <f t="shared" si="0"/>
         <v>CLIENTE</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="18">
+    <row r="7" spans="1:22" ht="17.399999999999999">
       <c r="A7" s="245">
         <v>56</v>
       </c>
@@ -6886,7 +6885,7 @@
       <c r="D7" s="230">
         <v>1</v>
       </c>
-      <c r="E7" s="485"/>
+      <c r="E7" s="501"/>
       <c r="F7" s="14">
         <v>6</v>
       </c>
@@ -6908,7 +6907,7 @@
       <c r="N7" s="300"/>
       <c r="O7" s="388"/>
       <c r="P7" s="387"/>
-      <c r="Q7" s="493" t="s">
+      <c r="Q7" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R7" s="440" t="s">
@@ -6916,13 +6915,13 @@
       </c>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="485"/>
+      <c r="U7" s="501"/>
       <c r="V7" s="263" t="str">
         <f t="shared" si="0"/>
         <v>CLIENTE</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="42.2" customHeight="1">
+    <row r="8" spans="1:22" ht="42.15" customHeight="1">
       <c r="A8" s="245">
         <v>19</v>
       </c>
@@ -6933,7 +6932,7 @@
       <c r="D8" s="230">
         <v>1</v>
       </c>
-      <c r="E8" s="485"/>
+      <c r="E8" s="501"/>
       <c r="F8" s="14">
         <v>7</v>
       </c>
@@ -6955,7 +6954,7 @@
       <c r="N8" s="300"/>
       <c r="O8" s="388"/>
       <c r="P8" s="387"/>
-      <c r="Q8" s="493">
+      <c r="Q8" s="471">
         <v>1</v>
       </c>
       <c r="R8" s="440" t="s">
@@ -6963,7 +6962,7 @@
       </c>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="485"/>
+      <c r="U8" s="501"/>
       <c r="V8" s="263" t="str">
         <f t="shared" si="0"/>
         <v>CLIENTE</v>
@@ -6983,7 +6982,7 @@
       <c r="D9" s="231">
         <v>2</v>
       </c>
-      <c r="E9" s="486" t="s">
+      <c r="E9" s="502" t="s">
         <v>306</v>
       </c>
       <c r="F9" s="24">
@@ -7013,13 +7012,13 @@
         <v>10</v>
       </c>
       <c r="P9" s="387"/>
-      <c r="Q9" s="493">
+      <c r="Q9" s="471">
         <v>2</v>
       </c>
       <c r="R9" s="440"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="486" t="s">
+      <c r="U9" s="502" t="s">
         <v>306</v>
       </c>
       <c r="V9" s="264" t="str">
@@ -7027,7 +7026,7 @@
         <v>RENTABILIDAD CLIENTE</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="30">
+    <row r="10" spans="1:22" ht="27.6">
       <c r="A10" s="245">
         <v>15</v>
       </c>
@@ -7041,7 +7040,7 @@
       <c r="D10" s="231">
         <v>2</v>
       </c>
-      <c r="E10" s="486"/>
+      <c r="E10" s="502"/>
       <c r="F10" s="24">
         <v>9</v>
       </c>
@@ -7069,19 +7068,19 @@
         <v>10</v>
       </c>
       <c r="P10" s="387"/>
-      <c r="Q10" s="493">
+      <c r="Q10" s="471">
         <v>2</v>
       </c>
       <c r="R10" s="440"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="486"/>
+      <c r="U10" s="502"/>
       <c r="V10" s="264" t="str">
         <f t="shared" si="0"/>
         <v>RENTABILIDAD CLIENTE</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="30">
+    <row r="11" spans="1:22" ht="27.6">
       <c r="A11" s="245">
         <v>10</v>
       </c>
@@ -7095,7 +7094,7 @@
       <c r="D11" s="231">
         <v>2</v>
       </c>
-      <c r="E11" s="486"/>
+      <c r="E11" s="502"/>
       <c r="F11" s="24">
         <v>10</v>
       </c>
@@ -7123,19 +7122,19 @@
         <v>10</v>
       </c>
       <c r="P11" s="387"/>
-      <c r="Q11" s="493">
+      <c r="Q11" s="471">
         <v>3</v>
       </c>
       <c r="R11" s="440"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="486"/>
+      <c r="U11" s="502"/>
       <c r="V11" s="264" t="str">
         <f t="shared" si="0"/>
         <v>RENTABILIDAD CLIENTE</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="30">
+    <row r="12" spans="1:22" ht="27.6">
       <c r="A12" s="245">
         <v>6</v>
       </c>
@@ -7149,7 +7148,7 @@
       <c r="D12" s="231">
         <v>2</v>
       </c>
-      <c r="E12" s="486"/>
+      <c r="E12" s="502"/>
       <c r="F12" s="24">
         <v>11</v>
       </c>
@@ -7177,19 +7176,19 @@
         <v>10</v>
       </c>
       <c r="P12" s="387"/>
-      <c r="Q12" s="493">
+      <c r="Q12" s="471">
         <v>2</v>
       </c>
       <c r="R12" s="440"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="486"/>
+      <c r="U12" s="502"/>
       <c r="V12" s="264" t="str">
         <f t="shared" si="0"/>
         <v>RENTABILIDAD CLIENTE</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="30">
+    <row r="13" spans="1:22" ht="27.6">
       <c r="A13" s="245">
         <v>14</v>
       </c>
@@ -7203,7 +7202,7 @@
       <c r="D13" s="231">
         <v>2</v>
       </c>
-      <c r="E13" s="486"/>
+      <c r="E13" s="502"/>
       <c r="F13" s="24">
         <v>12</v>
       </c>
@@ -7231,13 +7230,13 @@
         <v>10</v>
       </c>
       <c r="P13" s="387"/>
-      <c r="Q13" s="493">
+      <c r="Q13" s="471">
         <v>2</v>
       </c>
       <c r="R13" s="440"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="486"/>
+      <c r="U13" s="502"/>
       <c r="V13" s="264" t="str">
         <f t="shared" si="0"/>
         <v>RENTABILIDAD CLIENTE</v>
@@ -7281,7 +7280,7 @@
       <c r="N14" s="300"/>
       <c r="O14" s="388"/>
       <c r="P14" s="387"/>
-      <c r="Q14" s="493" t="s">
+      <c r="Q14" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R14" s="440"/>
@@ -7309,7 +7308,7 @@
       <c r="D15" s="233">
         <v>4</v>
       </c>
-      <c r="E15" s="487" t="s">
+      <c r="E15" s="503" t="s">
         <v>313</v>
       </c>
       <c r="F15" s="33">
@@ -7333,13 +7332,13 @@
       <c r="N15" s="300"/>
       <c r="O15" s="388"/>
       <c r="P15" s="387"/>
-      <c r="Q15" s="493" t="s">
+      <c r="Q15" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R15" s="440"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="487" t="s">
+      <c r="U15" s="503" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="266" t="str">
@@ -7347,7 +7346,7 @@
         <v>CUENTAS</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="31.15" customHeight="1">
+    <row r="16" spans="1:22" ht="31.2" customHeight="1">
       <c r="A16" s="245">
         <v>92</v>
       </c>
@@ -7361,7 +7360,7 @@
       <c r="D16" s="233">
         <v>4</v>
       </c>
-      <c r="E16" s="487"/>
+      <c r="E16" s="503"/>
       <c r="F16" s="33">
         <v>15</v>
       </c>
@@ -7383,13 +7382,13 @@
       <c r="N16" s="300"/>
       <c r="O16" s="388"/>
       <c r="P16" s="387"/>
-      <c r="Q16" s="493" t="s">
+      <c r="Q16" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R16" s="440"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="487"/>
+      <c r="U16" s="503"/>
       <c r="V16" s="266" t="str">
         <f t="shared" si="0"/>
         <v>CUENTAS</v>
@@ -7409,7 +7408,7 @@
       <c r="D17" s="233">
         <v>4</v>
       </c>
-      <c r="E17" s="487"/>
+      <c r="E17" s="503"/>
       <c r="F17" s="33">
         <v>16</v>
       </c>
@@ -7431,7 +7430,7 @@
       <c r="N17" s="300"/>
       <c r="O17" s="388"/>
       <c r="P17" s="387"/>
-      <c r="Q17" s="493">
+      <c r="Q17" s="471">
         <v>1</v>
       </c>
       <c r="R17" s="440" t="s">
@@ -7439,7 +7438,7 @@
       </c>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="487"/>
+      <c r="U17" s="503"/>
       <c r="V17" s="266" t="str">
         <f t="shared" si="0"/>
         <v>CUENTAS</v>
@@ -7459,7 +7458,7 @@
       <c r="D18" s="233">
         <v>4</v>
       </c>
-      <c r="E18" s="487"/>
+      <c r="E18" s="503"/>
       <c r="F18" s="33">
         <v>17</v>
       </c>
@@ -7481,13 +7480,13 @@
       <c r="N18" s="300"/>
       <c r="O18" s="388"/>
       <c r="P18" s="387"/>
-      <c r="Q18" s="493">
+      <c r="Q18" s="471">
         <v>5</v>
       </c>
       <c r="R18" s="440"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="487"/>
+      <c r="U18" s="503"/>
       <c r="V18" s="266" t="str">
         <f t="shared" si="0"/>
         <v>CUENTAS</v>
@@ -7507,7 +7506,7 @@
       <c r="D19" s="233">
         <v>4</v>
       </c>
-      <c r="E19" s="487"/>
+      <c r="E19" s="503"/>
       <c r="F19" s="33">
         <v>18</v>
       </c>
@@ -7529,13 +7528,13 @@
       <c r="N19" s="300"/>
       <c r="O19" s="388"/>
       <c r="P19" s="387"/>
-      <c r="Q19" s="493" t="s">
+      <c r="Q19" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R19" s="440"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="487"/>
+      <c r="U19" s="503"/>
       <c r="V19" s="266" t="str">
         <f t="shared" si="0"/>
         <v>CUENTAS</v>
@@ -7555,7 +7554,7 @@
       <c r="D20" s="233">
         <v>4</v>
       </c>
-      <c r="E20" s="487"/>
+      <c r="E20" s="503"/>
       <c r="F20" s="33">
         <v>19</v>
       </c>
@@ -7577,13 +7576,13 @@
       <c r="N20" s="300"/>
       <c r="O20" s="388"/>
       <c r="P20" s="387"/>
-      <c r="Q20" s="493">
+      <c r="Q20" s="471">
         <v>3</v>
       </c>
       <c r="R20" s="440"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="487"/>
+      <c r="U20" s="503"/>
       <c r="V20" s="266" t="str">
         <f t="shared" si="0"/>
         <v>CUENTAS</v>
@@ -7603,7 +7602,7 @@
       <c r="D21" s="233">
         <v>4</v>
       </c>
-      <c r="E21" s="487"/>
+      <c r="E21" s="503"/>
       <c r="F21" s="33">
         <v>20</v>
       </c>
@@ -7625,19 +7624,19 @@
       <c r="N21" s="300"/>
       <c r="O21" s="388"/>
       <c r="P21" s="387"/>
-      <c r="Q21" s="493" t="s">
+      <c r="Q21" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R21" s="440"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="487"/>
+      <c r="U21" s="503"/>
       <c r="V21" s="266" t="str">
         <f t="shared" si="0"/>
         <v>CUENTAS</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="35.450000000000003" customHeight="1">
+    <row r="22" spans="1:22" ht="35.4" customHeight="1">
       <c r="A22" s="245">
         <v>60</v>
       </c>
@@ -7651,7 +7650,7 @@
       <c r="D22" s="233">
         <v>4</v>
       </c>
-      <c r="E22" s="487"/>
+      <c r="E22" s="503"/>
       <c r="F22" s="33">
         <v>21</v>
       </c>
@@ -7673,13 +7672,13 @@
       <c r="N22" s="300"/>
       <c r="O22" s="388"/>
       <c r="P22" s="387"/>
-      <c r="Q22" s="493">
+      <c r="Q22" s="471">
         <v>4</v>
       </c>
       <c r="R22" s="440"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="487"/>
+      <c r="U22" s="503"/>
       <c r="V22" s="266" t="str">
         <f t="shared" si="0"/>
         <v>CUENTAS</v>
@@ -7699,7 +7698,7 @@
       <c r="D23" s="233">
         <v>4</v>
       </c>
-      <c r="E23" s="487"/>
+      <c r="E23" s="503"/>
       <c r="F23" s="33">
         <v>22</v>
       </c>
@@ -7721,13 +7720,13 @@
       <c r="N23" s="300"/>
       <c r="O23" s="388"/>
       <c r="P23" s="387"/>
-      <c r="Q23" s="493" t="s">
+      <c r="Q23" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R23" s="440"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="487"/>
+      <c r="U23" s="503"/>
       <c r="V23" s="266" t="str">
         <f t="shared" si="0"/>
         <v>CUENTAS</v>
@@ -7747,7 +7746,7 @@
       <c r="D24" s="233">
         <v>4</v>
       </c>
-      <c r="E24" s="487"/>
+      <c r="E24" s="503"/>
       <c r="F24" s="33">
         <v>23</v>
       </c>
@@ -7773,13 +7772,13 @@
         <v>10</v>
       </c>
       <c r="P24" s="387"/>
-      <c r="Q24" s="493">
+      <c r="Q24" s="471">
         <v>3</v>
       </c>
       <c r="R24" s="440"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="487"/>
+      <c r="U24" s="503"/>
       <c r="V24" s="266" t="str">
         <f t="shared" si="0"/>
         <v>CUENTAS</v>
@@ -7799,7 +7798,7 @@
       <c r="D25" s="234">
         <v>5</v>
       </c>
-      <c r="E25" s="488" t="s">
+      <c r="E25" s="504" t="s">
         <v>314</v>
       </c>
       <c r="F25" s="37">
@@ -7823,7 +7822,7 @@
       <c r="N25" s="300"/>
       <c r="O25" s="388"/>
       <c r="P25" s="387"/>
-      <c r="Q25" s="493">
+      <c r="Q25" s="471">
         <v>2</v>
       </c>
       <c r="R25" s="440" t="s">
@@ -7831,7 +7830,7 @@
       </c>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="488" t="s">
+      <c r="U25" s="504" t="s">
         <v>314</v>
       </c>
       <c r="V25" s="267" t="str">
@@ -7839,7 +7838,7 @@
         <v>TARJETA DEBITO</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="42.95" customHeight="1">
+    <row r="26" spans="1:22" ht="42.9" customHeight="1">
       <c r="A26" s="245">
         <v>55</v>
       </c>
@@ -7853,7 +7852,7 @@
       <c r="D26" s="234">
         <v>5</v>
       </c>
-      <c r="E26" s="488"/>
+      <c r="E26" s="504"/>
       <c r="F26" s="37">
         <v>25</v>
       </c>
@@ -7879,13 +7878,13 @@
         <v>10</v>
       </c>
       <c r="P26" s="387"/>
-      <c r="Q26" s="493" t="s">
+      <c r="Q26" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R26" s="440"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="488"/>
+      <c r="U26" s="504"/>
       <c r="V26" s="267" t="str">
         <f t="shared" si="0"/>
         <v>TARJETA DEBITO</v>
@@ -7905,7 +7904,7 @@
       <c r="D27" s="234">
         <v>5</v>
       </c>
-      <c r="E27" s="488"/>
+      <c r="E27" s="504"/>
       <c r="F27" s="37">
         <v>26</v>
       </c>
@@ -7931,19 +7930,19 @@
         <v>10</v>
       </c>
       <c r="P27" s="387"/>
-      <c r="Q27" s="493" t="s">
+      <c r="Q27" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R27" s="440"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="488"/>
+      <c r="U27" s="504"/>
       <c r="V27" s="267" t="str">
         <f t="shared" si="0"/>
         <v>TARJETA DEBITO</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="59.65" customHeight="1">
+    <row r="28" spans="1:22" ht="59.7" customHeight="1">
       <c r="A28" s="245">
         <v>25</v>
       </c>
@@ -7957,7 +7956,7 @@
       <c r="D28" s="235">
         <v>6</v>
       </c>
-      <c r="E28" s="489" t="s">
+      <c r="E28" s="505" t="s">
         <v>315</v>
       </c>
       <c r="F28" s="41">
@@ -7981,13 +7980,13 @@
       <c r="N28" s="300"/>
       <c r="O28" s="388"/>
       <c r="P28" s="387"/>
-      <c r="Q28" s="493" t="s">
+      <c r="Q28" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R28" s="440"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="489" t="s">
+      <c r="U28" s="505" t="s">
         <v>315</v>
       </c>
       <c r="V28" s="268" t="str">
@@ -7995,7 +7994,7 @@
         <v>VISA</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="34.9" customHeight="1">
+    <row r="29" spans="1:22" ht="34.950000000000003" customHeight="1">
       <c r="A29" s="245">
         <v>22</v>
       </c>
@@ -8009,7 +8008,7 @@
       <c r="D29" s="235">
         <v>6</v>
       </c>
-      <c r="E29" s="489"/>
+      <c r="E29" s="505"/>
       <c r="F29" s="41">
         <v>28</v>
       </c>
@@ -8035,19 +8034,19 @@
         <v>10</v>
       </c>
       <c r="P29" s="387"/>
-      <c r="Q29" s="493" t="s">
+      <c r="Q29" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R29" s="440"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
-      <c r="U29" s="489"/>
+      <c r="U29" s="505"/>
       <c r="V29" s="268" t="str">
         <f t="shared" si="0"/>
         <v>VISA</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="34.9" customHeight="1">
+    <row r="30" spans="1:22" ht="34.950000000000003" customHeight="1">
       <c r="A30" s="245">
         <v>17</v>
       </c>
@@ -8061,7 +8060,7 @@
       <c r="D30" s="235">
         <v>6</v>
       </c>
-      <c r="E30" s="489"/>
+      <c r="E30" s="505"/>
       <c r="F30" s="41">
         <v>29</v>
       </c>
@@ -8087,19 +8086,19 @@
         <v>10</v>
       </c>
       <c r="P30" s="387"/>
-      <c r="Q30" s="493">
+      <c r="Q30" s="471">
         <v>2</v>
       </c>
       <c r="R30" s="440"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
-      <c r="U30" s="489"/>
+      <c r="U30" s="505"/>
       <c r="V30" s="268" t="str">
         <f t="shared" si="0"/>
         <v>VISA</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="34.9" customHeight="1">
+    <row r="31" spans="1:22" ht="34.950000000000003" customHeight="1">
       <c r="A31" s="245">
         <v>28</v>
       </c>
@@ -8113,7 +8112,7 @@
       <c r="D31" s="236">
         <v>7</v>
       </c>
-      <c r="E31" s="475" t="s">
+      <c r="E31" s="491" t="s">
         <v>316</v>
       </c>
       <c r="F31" s="45">
@@ -8137,13 +8136,13 @@
       <c r="N31" s="300"/>
       <c r="O31" s="388"/>
       <c r="P31" s="387"/>
-      <c r="Q31" s="493" t="s">
+      <c r="Q31" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R31" s="440"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-      <c r="U31" s="475" t="s">
+      <c r="U31" s="491" t="s">
         <v>316</v>
       </c>
       <c r="V31" s="269" t="str">
@@ -8151,7 +8150,7 @@
         <v>MASTER</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="34.9" customHeight="1">
+    <row r="32" spans="1:22" ht="34.950000000000003" customHeight="1">
       <c r="A32" s="245">
         <v>46</v>
       </c>
@@ -8165,7 +8164,7 @@
       <c r="D32" s="236">
         <v>7</v>
       </c>
-      <c r="E32" s="475"/>
+      <c r="E32" s="491"/>
       <c r="F32" s="45">
         <v>31</v>
       </c>
@@ -8191,19 +8190,19 @@
         <v>10</v>
       </c>
       <c r="P32" s="387"/>
-      <c r="Q32" s="493" t="s">
+      <c r="Q32" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R32" s="440"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
-      <c r="U32" s="475"/>
+      <c r="U32" s="491"/>
       <c r="V32" s="269" t="str">
         <f t="shared" si="0"/>
         <v>MASTER</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="34.9" customHeight="1">
+    <row r="33" spans="1:22" ht="34.950000000000003" customHeight="1">
       <c r="A33" s="245">
         <v>43</v>
       </c>
@@ -8217,7 +8216,7 @@
       <c r="D33" s="236">
         <v>7</v>
       </c>
-      <c r="E33" s="475"/>
+      <c r="E33" s="491"/>
       <c r="F33" s="45">
         <v>32</v>
       </c>
@@ -8243,13 +8242,13 @@
         <v>10</v>
       </c>
       <c r="P33" s="387"/>
-      <c r="Q33" s="493">
+      <c r="Q33" s="471">
         <v>3</v>
       </c>
       <c r="R33" s="440"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
-      <c r="U33" s="475"/>
+      <c r="U33" s="491"/>
       <c r="V33" s="269" t="str">
         <f t="shared" si="0"/>
         <v>MASTER</v>
@@ -8269,7 +8268,7 @@
       <c r="D34" s="237">
         <v>8</v>
       </c>
-      <c r="E34" s="481" t="s">
+      <c r="E34" s="506" t="s">
         <v>317</v>
       </c>
       <c r="F34" s="49">
@@ -8293,7 +8292,7 @@
       <c r="N34" s="300"/>
       <c r="O34" s="388"/>
       <c r="P34" s="387"/>
-      <c r="Q34" s="493">
+      <c r="Q34" s="471">
         <v>1</v>
       </c>
       <c r="R34" s="440" t="s">
@@ -8301,7 +8300,7 @@
       </c>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
-      <c r="U34" s="481" t="s">
+      <c r="U34" s="506" t="s">
         <v>317</v>
       </c>
       <c r="V34" s="270" t="str">
@@ -8309,7 +8308,7 @@
         <v>PRESTAMOS</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="30.4" customHeight="1">
+    <row r="35" spans="1:22" ht="30.45" customHeight="1">
       <c r="A35" s="245">
         <v>4</v>
       </c>
@@ -8323,7 +8322,7 @@
       <c r="D35" s="237">
         <v>8</v>
       </c>
-      <c r="E35" s="481"/>
+      <c r="E35" s="506"/>
       <c r="F35" s="49">
         <v>34</v>
       </c>
@@ -8345,13 +8344,13 @@
       <c r="N35" s="300"/>
       <c r="O35" s="388"/>
       <c r="P35" s="387"/>
-      <c r="Q35" s="493">
+      <c r="Q35" s="471">
         <v>2</v>
       </c>
       <c r="R35" s="440"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
-      <c r="U35" s="481"/>
+      <c r="U35" s="506"/>
       <c r="V35" s="270" t="str">
         <f t="shared" si="0"/>
         <v>PRESTAMOS</v>
@@ -8371,7 +8370,7 @@
       <c r="D36" s="237">
         <v>8</v>
       </c>
-      <c r="E36" s="481"/>
+      <c r="E36" s="506"/>
       <c r="F36" s="49">
         <v>35</v>
       </c>
@@ -8397,19 +8396,19 @@
         <v>10</v>
       </c>
       <c r="P36" s="387"/>
-      <c r="Q36" s="493" t="s">
+      <c r="Q36" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R36" s="440"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
-      <c r="U36" s="481"/>
+      <c r="U36" s="506"/>
       <c r="V36" s="270" t="str">
         <f t="shared" si="0"/>
         <v>PRESTAMOS</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="31.7" customHeight="1">
+    <row r="37" spans="1:22" ht="31.65" customHeight="1">
       <c r="A37" s="245">
         <v>83</v>
       </c>
@@ -8423,7 +8422,7 @@
       <c r="D37" s="237">
         <v>8</v>
       </c>
-      <c r="E37" s="481"/>
+      <c r="E37" s="506"/>
       <c r="F37" s="49">
         <v>36</v>
       </c>
@@ -8449,7 +8448,7 @@
         <v>10</v>
       </c>
       <c r="P37" s="387"/>
-      <c r="Q37" s="493" t="s">
+      <c r="Q37" s="471" t="s">
         <v>302</v>
       </c>
       <c r="R37" s="440" t="s">
@@ -8457,7 +8456,7 @@
       </c>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
-      <c r="U37" s="481"/>
+      <c r="U37" s="506"/>
       <c r="V37" s="270" t="str">
         <f t="shared" si="0"/>
         <v>PRESTAMOS</v>
@@ -8477,7 +8476,7 @@
       <c r="D38" s="237">
         <v>8</v>
       </c>
-      <c r="E38" s="481"/>
+      <c r="E38" s="506"/>
       <c r="F38" s="49">
         <v>37</v>
       </c>
@@ -8503,19 +8502,19 @@
         <v>10</v>
       </c>
       <c r="P38" s="387"/>
-      <c r="Q38" s="493" t="s">
+      <c r="Q38" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R38" s="440"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
-      <c r="U38" s="481"/>
+      <c r="U38" s="506"/>
       <c r="V38" s="270" t="str">
         <f t="shared" si="0"/>
         <v>PRESTAMOS</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="34.15" customHeight="1">
+    <row r="39" spans="1:22" ht="34.200000000000003" customHeight="1">
       <c r="A39" s="245">
         <v>95</v>
       </c>
@@ -8529,7 +8528,7 @@
       <c r="D39" s="237">
         <v>8</v>
       </c>
-      <c r="E39" s="481"/>
+      <c r="E39" s="506"/>
       <c r="F39" s="49">
         <v>38</v>
       </c>
@@ -8555,19 +8554,19 @@
         <v>10</v>
       </c>
       <c r="P39" s="387"/>
-      <c r="Q39" s="493" t="s">
+      <c r="Q39" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R39" s="440"/>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
-      <c r="U39" s="481"/>
+      <c r="U39" s="506"/>
       <c r="V39" s="270" t="str">
         <f t="shared" si="0"/>
         <v>PRESTAMOS</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="38.65" customHeight="1">
+    <row r="40" spans="1:22" ht="38.700000000000003" customHeight="1">
       <c r="A40" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -8581,7 +8580,7 @@
       <c r="D40" s="238">
         <v>9</v>
       </c>
-      <c r="E40" s="482" t="s">
+      <c r="E40" s="507" t="s">
         <v>318</v>
       </c>
       <c r="F40" s="53">
@@ -8605,13 +8604,13 @@
       <c r="N40" s="300"/>
       <c r="O40" s="388"/>
       <c r="P40" s="387"/>
-      <c r="Q40" s="493" t="s">
+      <c r="Q40" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R40" s="440"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
-      <c r="U40" s="482" t="s">
+      <c r="U40" s="507" t="s">
         <v>318</v>
       </c>
       <c r="V40" s="271" t="str">
@@ -8633,7 +8632,7 @@
       <c r="D41" s="238">
         <v>9</v>
       </c>
-      <c r="E41" s="482"/>
+      <c r="E41" s="507"/>
       <c r="F41" s="53">
         <v>40</v>
       </c>
@@ -8655,13 +8654,13 @@
       <c r="N41" s="300"/>
       <c r="O41" s="388"/>
       <c r="P41" s="387"/>
-      <c r="Q41" s="493">
+      <c r="Q41" s="471">
         <v>3</v>
       </c>
       <c r="R41" s="440"/>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
-      <c r="U41" s="482"/>
+      <c r="U41" s="507"/>
       <c r="V41" s="271" t="str">
         <f t="shared" si="0"/>
         <v>INVERSIONES</v>
@@ -8681,7 +8680,7 @@
       <c r="D42" s="238">
         <v>9</v>
       </c>
-      <c r="E42" s="482"/>
+      <c r="E42" s="507"/>
       <c r="F42" s="53">
         <v>41</v>
       </c>
@@ -8703,7 +8702,7 @@
       <c r="N42" s="300"/>
       <c r="O42" s="388"/>
       <c r="P42" s="387"/>
-      <c r="Q42" s="493" t="s">
+      <c r="Q42" s="471" t="s">
         <v>302</v>
       </c>
       <c r="R42" s="440" t="s">
@@ -8711,13 +8710,13 @@
       </c>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
-      <c r="U42" s="482"/>
+      <c r="U42" s="507"/>
       <c r="V42" s="271" t="str">
         <f t="shared" si="0"/>
         <v>INVERSIONES</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="34.9" customHeight="1">
+    <row r="43" spans="1:22" ht="34.950000000000003" customHeight="1">
       <c r="A43" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -8731,7 +8730,7 @@
       <c r="D43" s="238">
         <v>9</v>
       </c>
-      <c r="E43" s="482"/>
+      <c r="E43" s="507"/>
       <c r="F43" s="53">
         <v>42</v>
       </c>
@@ -8753,19 +8752,19 @@
       <c r="N43" s="300"/>
       <c r="O43" s="388"/>
       <c r="P43" s="387"/>
-      <c r="Q43" s="493" t="s">
+      <c r="Q43" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R43" s="440"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
-      <c r="U43" s="482"/>
+      <c r="U43" s="507"/>
       <c r="V43" s="271" t="str">
         <f t="shared" si="0"/>
         <v>INVERSIONES</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="39.200000000000003" customHeight="1">
+    <row r="44" spans="1:22" ht="39.15" customHeight="1">
       <c r="A44" s="245">
         <v>116</v>
       </c>
@@ -8779,7 +8778,7 @@
       <c r="D44" s="238">
         <v>9</v>
       </c>
-      <c r="E44" s="482"/>
+      <c r="E44" s="507"/>
       <c r="F44" s="53">
         <v>43</v>
       </c>
@@ -8801,19 +8800,19 @@
       <c r="N44" s="300"/>
       <c r="O44" s="388"/>
       <c r="P44" s="387"/>
-      <c r="Q44" s="493" t="s">
+      <c r="Q44" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R44" s="440"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
-      <c r="U44" s="482"/>
+      <c r="U44" s="507"/>
       <c r="V44" s="271" t="str">
         <f t="shared" si="0"/>
         <v>INVERSIONES</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="42.95" customHeight="1">
+    <row r="45" spans="1:22" ht="42.9" customHeight="1">
       <c r="A45" s="245">
         <v>101</v>
       </c>
@@ -8827,7 +8826,7 @@
       <c r="D45" s="238">
         <v>9</v>
       </c>
-      <c r="E45" s="482"/>
+      <c r="E45" s="507"/>
       <c r="F45" s="53">
         <v>44</v>
       </c>
@@ -8849,13 +8848,13 @@
       <c r="N45" s="300"/>
       <c r="O45" s="388"/>
       <c r="P45" s="387"/>
-      <c r="Q45" s="493" t="s">
+      <c r="Q45" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R45" s="440"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
-      <c r="U45" s="482"/>
+      <c r="U45" s="507"/>
       <c r="V45" s="271" t="str">
         <f t="shared" si="0"/>
         <v>INVERSIONES</v>
@@ -8875,7 +8874,7 @@
       <c r="D46" s="238">
         <v>9</v>
       </c>
-      <c r="E46" s="482"/>
+      <c r="E46" s="507"/>
       <c r="F46" s="53">
         <v>45</v>
       </c>
@@ -8897,13 +8896,13 @@
       <c r="N46" s="300"/>
       <c r="O46" s="388"/>
       <c r="P46" s="387"/>
-      <c r="Q46" s="493" t="s">
+      <c r="Q46" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R46" s="440"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
-      <c r="U46" s="482"/>
+      <c r="U46" s="507"/>
       <c r="V46" s="271" t="str">
         <f t="shared" si="0"/>
         <v>INVERSIONES</v>
@@ -8923,7 +8922,7 @@
       <c r="D47" s="238">
         <v>9</v>
       </c>
-      <c r="E47" s="482"/>
+      <c r="E47" s="507"/>
       <c r="F47" s="53">
         <v>46</v>
       </c>
@@ -8945,19 +8944,19 @@
       <c r="N47" s="300"/>
       <c r="O47" s="388"/>
       <c r="P47" s="387"/>
-      <c r="Q47" s="493" t="s">
+      <c r="Q47" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R47" s="440"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
-      <c r="U47" s="482"/>
+      <c r="U47" s="507"/>
       <c r="V47" s="271" t="str">
         <f t="shared" si="0"/>
         <v>INVERSIONES</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="52.15" customHeight="1">
+    <row r="48" spans="1:22" ht="52.2" customHeight="1">
       <c r="A48" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -8971,7 +8970,7 @@
       <c r="D48" s="239">
         <v>10</v>
       </c>
-      <c r="E48" s="483" t="s">
+      <c r="E48" s="508" t="s">
         <v>319</v>
       </c>
       <c r="F48" s="57">
@@ -8995,13 +8994,13 @@
       <c r="N48" s="300"/>
       <c r="O48" s="388"/>
       <c r="P48" s="387"/>
-      <c r="Q48" s="493" t="s">
+      <c r="Q48" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R48" s="440"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
-      <c r="U48" s="483" t="s">
+      <c r="U48" s="508" t="s">
         <v>319</v>
       </c>
       <c r="V48" s="272" t="str">
@@ -9023,7 +9022,7 @@
       <c r="D49" s="239">
         <v>10</v>
       </c>
-      <c r="E49" s="483"/>
+      <c r="E49" s="508"/>
       <c r="F49" s="57">
         <v>48</v>
       </c>
@@ -9045,13 +9044,13 @@
       <c r="N49" s="300"/>
       <c r="O49" s="388"/>
       <c r="P49" s="387"/>
-      <c r="Q49" s="493" t="s">
+      <c r="Q49" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R49" s="440"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
-      <c r="U49" s="483"/>
+      <c r="U49" s="508"/>
       <c r="V49" s="272" t="str">
         <f t="shared" si="0"/>
         <v>SEGUROS</v>
@@ -9071,7 +9070,7 @@
       <c r="D50" s="239">
         <v>10</v>
       </c>
-      <c r="E50" s="483"/>
+      <c r="E50" s="508"/>
       <c r="F50" s="57">
         <v>49</v>
       </c>
@@ -9093,13 +9092,13 @@
       <c r="N50" s="300"/>
       <c r="O50" s="388"/>
       <c r="P50" s="387"/>
-      <c r="Q50" s="493" t="s">
+      <c r="Q50" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R50" s="440"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
-      <c r="U50" s="483"/>
+      <c r="U50" s="508"/>
       <c r="V50" s="272" t="str">
         <f t="shared" si="0"/>
         <v>SEGUROS</v>
@@ -9119,7 +9118,7 @@
       <c r="D51" s="239">
         <v>10</v>
       </c>
-      <c r="E51" s="483"/>
+      <c r="E51" s="508"/>
       <c r="F51" s="57">
         <v>50</v>
       </c>
@@ -9141,13 +9140,13 @@
       <c r="N51" s="300"/>
       <c r="O51" s="388"/>
       <c r="P51" s="387"/>
-      <c r="Q51" s="493" t="s">
+      <c r="Q51" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R51" s="440"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
-      <c r="U51" s="483"/>
+      <c r="U51" s="508"/>
       <c r="V51" s="272" t="str">
         <f t="shared" si="0"/>
         <v>SEGUROS</v>
@@ -9167,7 +9166,7 @@
       <c r="D52" s="239">
         <v>10</v>
       </c>
-      <c r="E52" s="483"/>
+      <c r="E52" s="508"/>
       <c r="F52" s="57">
         <v>51</v>
       </c>
@@ -9189,13 +9188,13 @@
       <c r="N52" s="300"/>
       <c r="O52" s="388"/>
       <c r="P52" s="387"/>
-      <c r="Q52" s="493" t="s">
+      <c r="Q52" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R52" s="440"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
-      <c r="U52" s="483"/>
+      <c r="U52" s="508"/>
       <c r="V52" s="272" t="str">
         <f t="shared" si="0"/>
         <v>SEGUROS</v>
@@ -9215,7 +9214,7 @@
       <c r="D53" s="240">
         <v>11</v>
       </c>
-      <c r="E53" s="484" t="s">
+      <c r="E53" s="509" t="s">
         <v>320</v>
       </c>
       <c r="F53" s="61">
@@ -9239,7 +9238,7 @@
       <c r="N53" s="300"/>
       <c r="O53" s="388"/>
       <c r="P53" s="387"/>
-      <c r="Q53" s="493">
+      <c r="Q53" s="471">
         <v>1</v>
       </c>
       <c r="R53" s="440" t="s">
@@ -9247,7 +9246,7 @@
       </c>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
-      <c r="U53" s="484" t="s">
+      <c r="U53" s="509" t="s">
         <v>320</v>
       </c>
       <c r="V53" s="273" t="str">
@@ -9255,7 +9254,7 @@
         <v>ACREDITACIONES</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="34.15" customHeight="1">
+    <row r="54" spans="1:22" ht="34.200000000000003" customHeight="1">
       <c r="A54" s="245">
         <v>20</v>
       </c>
@@ -9269,7 +9268,7 @@
       <c r="D54" s="240">
         <v>11</v>
       </c>
-      <c r="E54" s="484"/>
+      <c r="E54" s="509"/>
       <c r="F54" s="61">
         <v>53</v>
       </c>
@@ -9291,19 +9290,19 @@
       <c r="N54" s="300"/>
       <c r="O54" s="388"/>
       <c r="P54" s="387"/>
-      <c r="Q54" s="493">
+      <c r="Q54" s="471">
         <v>4</v>
       </c>
       <c r="R54" s="440"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
-      <c r="U54" s="484"/>
+      <c r="U54" s="509"/>
       <c r="V54" s="273" t="str">
         <f t="shared" si="0"/>
         <v>ACREDITACIONES</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="34.9" customHeight="1">
+    <row r="55" spans="1:22" ht="34.950000000000003" customHeight="1">
       <c r="A55" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -9317,7 +9316,7 @@
       <c r="D55" s="240">
         <v>11</v>
       </c>
-      <c r="E55" s="484"/>
+      <c r="E55" s="509"/>
       <c r="F55" s="61">
         <v>54</v>
       </c>
@@ -9339,19 +9338,19 @@
       <c r="N55" s="300"/>
       <c r="O55" s="388"/>
       <c r="P55" s="387"/>
-      <c r="Q55" s="493" t="s">
+      <c r="Q55" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R55" s="440"/>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
-      <c r="U55" s="484"/>
+      <c r="U55" s="509"/>
       <c r="V55" s="273" t="str">
         <f t="shared" si="0"/>
         <v>ACREDITACIONES</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="35.450000000000003" customHeight="1">
+    <row r="56" spans="1:22" ht="35.4" customHeight="1">
       <c r="A56" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -9365,7 +9364,7 @@
       <c r="D56" s="240">
         <v>11</v>
       </c>
-      <c r="E56" s="484"/>
+      <c r="E56" s="509"/>
       <c r="F56" s="61">
         <v>55</v>
       </c>
@@ -9387,19 +9386,19 @@
       <c r="N56" s="300"/>
       <c r="O56" s="388"/>
       <c r="P56" s="387"/>
-      <c r="Q56" s="493" t="s">
+      <c r="Q56" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R56" s="440"/>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
-      <c r="U56" s="484"/>
+      <c r="U56" s="509"/>
       <c r="V56" s="273" t="str">
         <f t="shared" si="0"/>
         <v>ACREDITACIONES</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="46.15" customHeight="1">
+    <row r="57" spans="1:22" ht="46.2" customHeight="1">
       <c r="A57" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -9413,7 +9412,7 @@
       <c r="D57" s="241">
         <v>12</v>
       </c>
-      <c r="E57" s="476" t="s">
+      <c r="E57" s="510" t="s">
         <v>321</v>
       </c>
       <c r="F57" s="65">
@@ -9437,7 +9436,7 @@
       <c r="N57" s="300"/>
       <c r="O57" s="388"/>
       <c r="P57" s="387"/>
-      <c r="Q57" s="493">
+      <c r="Q57" s="471">
         <v>2</v>
       </c>
       <c r="R57" s="440" t="s">
@@ -9445,7 +9444,7 @@
       </c>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
-      <c r="U57" s="476" t="s">
+      <c r="U57" s="510" t="s">
         <v>321</v>
       </c>
       <c r="V57" s="274" t="str">
@@ -9467,7 +9466,7 @@
       <c r="D58" s="241">
         <v>12</v>
       </c>
-      <c r="E58" s="476"/>
+      <c r="E58" s="510"/>
       <c r="F58" s="65">
         <v>57</v>
       </c>
@@ -9489,19 +9488,19 @@
       <c r="N58" s="300"/>
       <c r="O58" s="388"/>
       <c r="P58" s="387"/>
-      <c r="Q58" s="493">
+      <c r="Q58" s="471">
         <v>4</v>
       </c>
       <c r="R58" s="440"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
-      <c r="U58" s="476"/>
+      <c r="U58" s="510"/>
       <c r="V58" s="274" t="str">
         <f t="shared" si="0"/>
         <v>PAGOS_DEBITADOS</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="46.15" customHeight="1">
+    <row r="59" spans="1:22" ht="46.2" customHeight="1">
       <c r="A59" s="245">
         <v>68</v>
       </c>
@@ -9515,7 +9514,7 @@
       <c r="D59" s="241">
         <v>12</v>
       </c>
-      <c r="E59" s="476"/>
+      <c r="E59" s="510"/>
       <c r="F59" s="65">
         <v>58</v>
       </c>
@@ -9541,19 +9540,19 @@
         <v>10</v>
       </c>
       <c r="P59" s="387"/>
-      <c r="Q59" s="493" t="s">
+      <c r="Q59" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R59" s="440"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
-      <c r="U59" s="476"/>
+      <c r="U59" s="510"/>
       <c r="V59" s="274" t="str">
         <f t="shared" si="0"/>
         <v>PAGOS_DEBITADOS</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="52.9" customHeight="1">
+    <row r="60" spans="1:22" ht="52.95" customHeight="1">
       <c r="A60" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -9567,7 +9566,7 @@
       <c r="D60" s="241">
         <v>12</v>
       </c>
-      <c r="E60" s="476"/>
+      <c r="E60" s="510"/>
       <c r="F60" s="65">
         <v>59</v>
       </c>
@@ -9593,13 +9592,13 @@
         <v>10</v>
       </c>
       <c r="P60" s="387"/>
-      <c r="Q60" s="493">
+      <c r="Q60" s="471">
         <v>2</v>
       </c>
       <c r="R60" s="440"/>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
-      <c r="U60" s="476"/>
+      <c r="U60" s="510"/>
       <c r="V60" s="274" t="str">
         <f t="shared" si="0"/>
         <v>PAGOS_DEBITADOS</v>
@@ -9619,7 +9618,7 @@
       <c r="D61" s="241">
         <v>12</v>
       </c>
-      <c r="E61" s="476"/>
+      <c r="E61" s="510"/>
       <c r="F61" s="65">
         <v>60</v>
       </c>
@@ -9641,13 +9640,13 @@
       <c r="N61" s="300"/>
       <c r="O61" s="388"/>
       <c r="P61" s="387"/>
-      <c r="Q61" s="493" t="s">
+      <c r="Q61" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R61" s="440"/>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
-      <c r="U61" s="476"/>
+      <c r="U61" s="510"/>
       <c r="V61" s="274" t="str">
         <f t="shared" si="0"/>
         <v>PAGOS_DEBITADOS</v>
@@ -9667,7 +9666,7 @@
       <c r="D62" s="241">
         <v>12</v>
       </c>
-      <c r="E62" s="476"/>
+      <c r="E62" s="510"/>
       <c r="F62" s="65">
         <v>61</v>
       </c>
@@ -9689,13 +9688,13 @@
       <c r="N62" s="300"/>
       <c r="O62" s="388"/>
       <c r="P62" s="387"/>
-      <c r="Q62" s="493" t="s">
+      <c r="Q62" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R62" s="440"/>
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
-      <c r="U62" s="476"/>
+      <c r="U62" s="510"/>
       <c r="V62" s="274" t="str">
         <f t="shared" si="0"/>
         <v>PAGOS_DEBITADOS</v>
@@ -9715,7 +9714,7 @@
       <c r="D63" s="241">
         <v>12</v>
       </c>
-      <c r="E63" s="476"/>
+      <c r="E63" s="510"/>
       <c r="F63" s="65">
         <v>62</v>
       </c>
@@ -9737,13 +9736,13 @@
       <c r="N63" s="300"/>
       <c r="O63" s="388"/>
       <c r="P63" s="387"/>
-      <c r="Q63" s="493" t="s">
+      <c r="Q63" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R63" s="440"/>
       <c r="S63" s="11"/>
       <c r="T63" s="11"/>
-      <c r="U63" s="476"/>
+      <c r="U63" s="510"/>
       <c r="V63" s="274" t="str">
         <f t="shared" si="0"/>
         <v>PAGOS_DEBITADOS</v>
@@ -9763,7 +9762,7 @@
       <c r="D64" s="241">
         <v>12</v>
       </c>
-      <c r="E64" s="476"/>
+      <c r="E64" s="510"/>
       <c r="F64" s="65">
         <v>63</v>
       </c>
@@ -9785,7 +9784,7 @@
       <c r="N64" s="300"/>
       <c r="O64" s="388"/>
       <c r="P64" s="387"/>
-      <c r="Q64" s="493" t="s">
+      <c r="Q64" s="471" t="s">
         <v>389</v>
       </c>
       <c r="R64" s="440" t="s">
@@ -9795,7 +9794,7 @@
         <v>302</v>
       </c>
       <c r="T64" s="11"/>
-      <c r="U64" s="476"/>
+      <c r="U64" s="510"/>
       <c r="V64" s="274" t="str">
         <f t="shared" si="0"/>
         <v>PAGOS_DEBITADOS</v>
@@ -9815,7 +9814,7 @@
       <c r="D65" s="241">
         <v>12</v>
       </c>
-      <c r="E65" s="476"/>
+      <c r="E65" s="510"/>
       <c r="F65" s="65">
         <v>64</v>
       </c>
@@ -9837,19 +9836,19 @@
       <c r="N65" s="300"/>
       <c r="O65" s="388"/>
       <c r="P65" s="387"/>
-      <c r="Q65" s="493" t="s">
+      <c r="Q65" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R65" s="440"/>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
-      <c r="U65" s="476"/>
+      <c r="U65" s="510"/>
       <c r="V65" s="274" t="str">
         <f t="shared" si="0"/>
         <v>PAGOS_DEBITADOS</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="41.65" customHeight="1">
+    <row r="66" spans="1:22" ht="41.7" customHeight="1">
       <c r="A66" s="245">
         <v>76</v>
       </c>
@@ -9863,7 +9862,7 @@
       <c r="D66" s="241">
         <v>12</v>
       </c>
-      <c r="E66" s="476"/>
+      <c r="E66" s="510"/>
       <c r="F66" s="65">
         <v>65</v>
       </c>
@@ -9885,19 +9884,19 @@
       <c r="N66" s="300"/>
       <c r="O66" s="388"/>
       <c r="P66" s="387"/>
-      <c r="Q66" s="493">
+      <c r="Q66" s="471">
         <v>4</v>
       </c>
       <c r="R66" s="440"/>
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
-      <c r="U66" s="476"/>
+      <c r="U66" s="510"/>
       <c r="V66" s="274" t="str">
         <f t="shared" si="0"/>
         <v>PAGOS_DEBITADOS</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="75">
+    <row r="67" spans="1:22" ht="69">
       <c r="A67" s="245">
         <v>93</v>
       </c>
@@ -9911,7 +9910,7 @@
       <c r="D67" s="242">
         <v>13</v>
       </c>
-      <c r="E67" s="477" t="s">
+      <c r="E67" s="500" t="s">
         <v>324</v>
       </c>
       <c r="F67" s="69">
@@ -9941,13 +9940,13 @@
         <v>10</v>
       </c>
       <c r="P67" s="387"/>
-      <c r="Q67" s="493" t="s">
+      <c r="Q67" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R67" s="440"/>
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
-      <c r="U67" s="477" t="s">
+      <c r="U67" s="500" t="s">
         <v>324</v>
       </c>
       <c r="V67" s="275" t="str">
@@ -9955,7 +9954,7 @@
         <v>DESCUENTOS OBTENIDOS</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="75">
+    <row r="68" spans="1:22" ht="69">
       <c r="A68" s="245">
         <v>103</v>
       </c>
@@ -9969,7 +9968,7 @@
       <c r="D68" s="242">
         <v>13</v>
       </c>
-      <c r="E68" s="477"/>
+      <c r="E68" s="500"/>
       <c r="F68" s="69">
         <v>67</v>
       </c>
@@ -9997,19 +9996,19 @@
         <v>10</v>
       </c>
       <c r="P68" s="387"/>
-      <c r="Q68" s="493">
+      <c r="Q68" s="471">
         <v>3</v>
       </c>
       <c r="R68" s="440"/>
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
-      <c r="U68" s="477"/>
+      <c r="U68" s="500"/>
       <c r="V68" s="275" t="str">
         <f t="shared" ref="V68:V131" si="3">IF(U68="",V67,U68)</f>
         <v>DESCUENTOS OBTENIDOS</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="75">
+    <row r="69" spans="1:22" ht="69">
       <c r="A69" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -10023,7 +10022,7 @@
       <c r="D69" s="242">
         <v>13</v>
       </c>
-      <c r="E69" s="477"/>
+      <c r="E69" s="500"/>
       <c r="F69" s="69">
         <v>68</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>8</v>
       </c>
       <c r="P69" s="387"/>
-      <c r="Q69" s="493">
+      <c r="Q69" s="471">
         <v>2</v>
       </c>
       <c r="R69" s="440" t="s">
@@ -10059,13 +10058,13 @@
       </c>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
-      <c r="U69" s="477"/>
+      <c r="U69" s="500"/>
       <c r="V69" s="275" t="str">
         <f t="shared" si="3"/>
         <v>DESCUENTOS OBTENIDOS</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="75">
+    <row r="70" spans="1:22" ht="69">
       <c r="A70" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -10079,7 +10078,7 @@
       <c r="D70" s="242">
         <v>13</v>
       </c>
-      <c r="E70" s="477"/>
+      <c r="E70" s="500"/>
       <c r="F70" s="69">
         <v>69</v>
       </c>
@@ -10107,19 +10106,19 @@
         <v>10</v>
       </c>
       <c r="P70" s="387"/>
-      <c r="Q70" s="493">
+      <c r="Q70" s="471">
         <v>3</v>
       </c>
       <c r="R70" s="440"/>
       <c r="S70" s="11"/>
       <c r="T70" s="11"/>
-      <c r="U70" s="477"/>
+      <c r="U70" s="500"/>
       <c r="V70" s="275" t="str">
         <f t="shared" si="3"/>
         <v>DESCUENTOS OBTENIDOS</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="75">
+    <row r="71" spans="1:22" ht="69">
       <c r="A71" s="245">
         <v>115</v>
       </c>
@@ -10133,7 +10132,7 @@
       <c r="D71" s="242">
         <v>13</v>
       </c>
-      <c r="E71" s="477"/>
+      <c r="E71" s="500"/>
       <c r="F71" s="69">
         <v>70</v>
       </c>
@@ -10161,7 +10160,7 @@
         <v>8</v>
       </c>
       <c r="P71" s="387"/>
-      <c r="Q71" s="493">
+      <c r="Q71" s="471">
         <v>1</v>
       </c>
       <c r="R71" s="440" t="s">
@@ -10169,13 +10168,13 @@
       </c>
       <c r="S71" s="11"/>
       <c r="T71" s="11"/>
-      <c r="U71" s="477"/>
+      <c r="U71" s="500"/>
       <c r="V71" s="275" t="str">
         <f t="shared" si="3"/>
         <v>DESCUENTOS OBTENIDOS</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="75">
+    <row r="72" spans="1:22" ht="69">
       <c r="A72" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -10189,7 +10188,7 @@
       <c r="D72" s="242">
         <v>13</v>
       </c>
-      <c r="E72" s="477"/>
+      <c r="E72" s="500"/>
       <c r="F72" s="69">
         <v>71</v>
       </c>
@@ -10219,19 +10218,19 @@
         <v>10</v>
       </c>
       <c r="P72" s="387"/>
-      <c r="Q72" s="493" t="s">
+      <c r="Q72" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R72" s="440"/>
       <c r="S72" s="11"/>
       <c r="T72" s="11"/>
-      <c r="U72" s="477"/>
+      <c r="U72" s="500"/>
       <c r="V72" s="275" t="str">
         <f t="shared" si="3"/>
         <v>DESCUENTOS OBTENIDOS</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="41.65" customHeight="1">
+    <row r="73" spans="1:22" ht="41.7" customHeight="1">
       <c r="A73" s="245">
         <v>29</v>
       </c>
@@ -10245,7 +10244,7 @@
       <c r="D73" s="243">
         <v>14</v>
       </c>
-      <c r="E73" s="478" t="s">
+      <c r="E73" s="494" t="s">
         <v>325</v>
       </c>
       <c r="F73" s="73">
@@ -10269,11 +10268,11 @@
       <c r="N73" s="300"/>
       <c r="O73" s="388"/>
       <c r="P73" s="387"/>
-      <c r="Q73" s="493"/>
+      <c r="Q73" s="471"/>
       <c r="R73" s="440"/>
       <c r="S73" s="11"/>
       <c r="T73" s="11"/>
-      <c r="U73" s="478" t="s">
+      <c r="U73" s="494" t="s">
         <v>325</v>
       </c>
       <c r="V73" s="276" t="str">
@@ -10295,7 +10294,7 @@
       <c r="D74" s="243">
         <v>14</v>
       </c>
-      <c r="E74" s="478"/>
+      <c r="E74" s="494"/>
       <c r="F74" s="73">
         <v>73</v>
       </c>
@@ -10317,13 +10316,13 @@
       <c r="N74" s="300"/>
       <c r="O74" s="388"/>
       <c r="P74" s="387"/>
-      <c r="Q74" s="493">
+      <c r="Q74" s="471">
         <v>2</v>
       </c>
       <c r="R74" s="440"/>
       <c r="S74" s="11"/>
       <c r="T74" s="11"/>
-      <c r="U74" s="478"/>
+      <c r="U74" s="494"/>
       <c r="V74" s="276" t="str">
         <f t="shared" si="3"/>
         <v>COMISIONES</v>
@@ -10343,7 +10342,7 @@
       <c r="D75" s="243">
         <v>14</v>
       </c>
-      <c r="E75" s="478"/>
+      <c r="E75" s="494"/>
       <c r="F75" s="73">
         <v>74</v>
       </c>
@@ -10371,13 +10370,13 @@
         <v>10</v>
       </c>
       <c r="P75" s="387"/>
-      <c r="Q75" s="493" t="s">
+      <c r="Q75" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R75" s="440"/>
       <c r="S75" s="11"/>
       <c r="T75" s="11"/>
-      <c r="U75" s="478"/>
+      <c r="U75" s="494"/>
       <c r="V75" s="276" t="str">
         <f t="shared" si="3"/>
         <v>COMISIONES</v>
@@ -10397,7 +10396,7 @@
       <c r="D76" s="243">
         <v>14</v>
       </c>
-      <c r="E76" s="478"/>
+      <c r="E76" s="494"/>
       <c r="F76" s="73">
         <v>75</v>
       </c>
@@ -10425,19 +10424,19 @@
         <v>10</v>
       </c>
       <c r="P76" s="387"/>
-      <c r="Q76" s="493">
+      <c r="Q76" s="471">
         <v>3</v>
       </c>
       <c r="R76" s="440"/>
       <c r="S76" s="11"/>
       <c r="T76" s="11"/>
-      <c r="U76" s="478"/>
+      <c r="U76" s="494"/>
       <c r="V76" s="276" t="str">
         <f t="shared" si="3"/>
         <v>COMISIONES</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="34.15" customHeight="1">
+    <row r="77" spans="1:22" ht="34.200000000000003" customHeight="1">
       <c r="A77" s="245">
         <v>94</v>
       </c>
@@ -10451,7 +10450,7 @@
       <c r="D77" s="218">
         <v>15</v>
       </c>
-      <c r="E77" s="479" t="s">
+      <c r="E77" s="495" t="s">
         <v>326</v>
       </c>
       <c r="F77" s="77">
@@ -10475,13 +10474,13 @@
       <c r="N77" s="300"/>
       <c r="O77" s="388"/>
       <c r="P77" s="387"/>
-      <c r="Q77" s="493" t="s">
+      <c r="Q77" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R77" s="440"/>
       <c r="S77" s="11"/>
       <c r="T77" s="11"/>
-      <c r="U77" s="479" t="s">
+      <c r="U77" s="495" t="s">
         <v>326</v>
       </c>
       <c r="V77" s="277" t="str">
@@ -10503,7 +10502,7 @@
       <c r="D78" s="218">
         <v>15</v>
       </c>
-      <c r="E78" s="479"/>
+      <c r="E78" s="495"/>
       <c r="F78" s="77">
         <v>77</v>
       </c>
@@ -10525,19 +10524,19 @@
       <c r="N78" s="300"/>
       <c r="O78" s="388"/>
       <c r="P78" s="387"/>
-      <c r="Q78" s="493" t="s">
+      <c r="Q78" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R78" s="440"/>
       <c r="S78" s="11"/>
       <c r="T78" s="11"/>
-      <c r="U78" s="479"/>
+      <c r="U78" s="495"/>
       <c r="V78" s="277" t="str">
         <f t="shared" si="3"/>
         <v>OPER_MONEDA_EXT</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="38.65" customHeight="1">
+    <row r="79" spans="1:22" ht="38.700000000000003" customHeight="1">
       <c r="A79" s="245">
         <v>99</v>
       </c>
@@ -10551,7 +10550,7 @@
       <c r="D79" s="218">
         <v>15</v>
       </c>
-      <c r="E79" s="479"/>
+      <c r="E79" s="495"/>
       <c r="F79" s="77">
         <v>78</v>
       </c>
@@ -10573,19 +10572,19 @@
       <c r="N79" s="300"/>
       <c r="O79" s="388"/>
       <c r="P79" s="387"/>
-      <c r="Q79" s="493">
+      <c r="Q79" s="471">
         <v>3</v>
       </c>
       <c r="R79" s="440"/>
       <c r="S79" s="11"/>
       <c r="T79" s="11"/>
-      <c r="U79" s="479"/>
+      <c r="U79" s="495"/>
       <c r="V79" s="277" t="str">
         <f t="shared" si="3"/>
         <v>OPER_MONEDA_EXT</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="31.15" customHeight="1">
+    <row r="80" spans="1:22" ht="31.2" customHeight="1">
       <c r="A80" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -10599,7 +10598,7 @@
       <c r="D80" s="218">
         <v>15</v>
       </c>
-      <c r="E80" s="479"/>
+      <c r="E80" s="495"/>
       <c r="F80" s="77">
         <v>79</v>
       </c>
@@ -10619,19 +10618,19 @@
       <c r="N80" s="300"/>
       <c r="O80" s="388"/>
       <c r="P80" s="387"/>
-      <c r="Q80" s="493" t="s">
+      <c r="Q80" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R80" s="440"/>
       <c r="S80" s="11"/>
       <c r="T80" s="11"/>
-      <c r="U80" s="479"/>
+      <c r="U80" s="495"/>
       <c r="V80" s="277" t="str">
         <f t="shared" si="3"/>
         <v>OPER_MONEDA_EXT</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="34.15" customHeight="1">
+    <row r="81" spans="1:22" ht="34.200000000000003" customHeight="1">
       <c r="A81" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -10645,7 +10644,7 @@
       <c r="D81" s="218">
         <v>15</v>
       </c>
-      <c r="E81" s="479"/>
+      <c r="E81" s="495"/>
       <c r="F81" s="77">
         <v>80</v>
       </c>
@@ -10667,19 +10666,19 @@
       <c r="N81" s="300"/>
       <c r="O81" s="388"/>
       <c r="P81" s="387"/>
-      <c r="Q81" s="493" t="s">
+      <c r="Q81" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R81" s="440"/>
       <c r="S81" s="11"/>
       <c r="T81" s="11"/>
-      <c r="U81" s="479"/>
+      <c r="U81" s="495"/>
       <c r="V81" s="277" t="str">
         <f t="shared" si="3"/>
         <v>OPER_MONEDA_EXT</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="37.9" customHeight="1">
+    <row r="82" spans="1:22" ht="37.950000000000003" customHeight="1">
       <c r="A82" s="245">
         <v>40</v>
       </c>
@@ -10693,7 +10692,7 @@
       <c r="D82" s="219">
         <v>16</v>
       </c>
-      <c r="E82" s="480" t="s">
+      <c r="E82" s="496" t="s">
         <v>327</v>
       </c>
       <c r="F82" s="79">
@@ -10721,7 +10720,7 @@
         <v>3</v>
       </c>
       <c r="P82" s="387"/>
-      <c r="Q82" s="493">
+      <c r="Q82" s="471">
         <v>2</v>
       </c>
       <c r="R82" s="440" t="s">
@@ -10729,7 +10728,7 @@
       </c>
       <c r="S82" s="11"/>
       <c r="T82" s="11"/>
-      <c r="U82" s="480" t="s">
+      <c r="U82" s="496" t="s">
         <v>327</v>
       </c>
       <c r="V82" s="278" t="str">
@@ -10751,7 +10750,7 @@
       <c r="D83" s="219">
         <v>16</v>
       </c>
-      <c r="E83" s="480"/>
+      <c r="E83" s="496"/>
       <c r="F83" s="79">
         <v>82</v>
       </c>
@@ -10777,19 +10776,19 @@
         <v>3</v>
       </c>
       <c r="P83" s="387"/>
-      <c r="Q83" s="493">
+      <c r="Q83" s="471">
         <v>4</v>
       </c>
       <c r="R83" s="440"/>
       <c r="S83" s="11"/>
       <c r="T83" s="11"/>
-      <c r="U83" s="480"/>
+      <c r="U83" s="496"/>
       <c r="V83" s="278" t="str">
         <f t="shared" si="3"/>
         <v>MOVIMIENTOS CUENTA</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="38.65" customHeight="1">
+    <row r="84" spans="1:22" ht="38.700000000000003" customHeight="1">
       <c r="A84" s="245">
         <v>59</v>
       </c>
@@ -10803,7 +10802,7 @@
       <c r="D84" s="219">
         <v>16</v>
       </c>
-      <c r="E84" s="480"/>
+      <c r="E84" s="496"/>
       <c r="F84" s="79">
         <v>83</v>
       </c>
@@ -10825,7 +10824,7 @@
       <c r="N84" s="300"/>
       <c r="O84" s="388"/>
       <c r="P84" s="387"/>
-      <c r="Q84" s="493">
+      <c r="Q84" s="471">
         <v>2</v>
       </c>
       <c r="R84" s="440" t="s">
@@ -10833,13 +10832,13 @@
       </c>
       <c r="S84" s="11"/>
       <c r="T84" s="11"/>
-      <c r="U84" s="480"/>
+      <c r="U84" s="496"/>
       <c r="V84" s="278" t="str">
         <f t="shared" si="3"/>
         <v>MOVIMIENTOS CUENTA</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="40.9" customHeight="1">
+    <row r="85" spans="1:22" ht="40.950000000000003" customHeight="1">
       <c r="A85" s="245">
         <v>63</v>
       </c>
@@ -10853,7 +10852,7 @@
       <c r="D85" s="219">
         <v>16</v>
       </c>
-      <c r="E85" s="480"/>
+      <c r="E85" s="496"/>
       <c r="F85" s="79">
         <v>84</v>
       </c>
@@ -10875,13 +10874,13 @@
       <c r="N85" s="300"/>
       <c r="O85" s="388"/>
       <c r="P85" s="387"/>
-      <c r="Q85" s="493">
+      <c r="Q85" s="471">
         <v>4</v>
       </c>
       <c r="R85" s="440"/>
       <c r="S85" s="11"/>
       <c r="T85" s="11"/>
-      <c r="U85" s="480"/>
+      <c r="U85" s="496"/>
       <c r="V85" s="278" t="str">
         <f t="shared" si="3"/>
         <v>MOVIMIENTOS CUENTA</v>
@@ -10901,7 +10900,7 @@
       <c r="D86" s="219">
         <v>16</v>
       </c>
-      <c r="E86" s="480"/>
+      <c r="E86" s="496"/>
       <c r="F86" s="79">
         <v>85</v>
       </c>
@@ -10927,13 +10926,13 @@
         <v>10</v>
       </c>
       <c r="P86" s="387"/>
-      <c r="Q86" s="493" t="s">
+      <c r="Q86" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R86" s="440"/>
       <c r="S86" s="11"/>
       <c r="T86" s="11"/>
-      <c r="U86" s="480"/>
+      <c r="U86" s="496"/>
       <c r="V86" s="278" t="str">
         <f t="shared" si="3"/>
         <v>MOVIMIENTOS CUENTA</v>
@@ -10953,7 +10952,7 @@
       <c r="D87" s="219">
         <v>16</v>
       </c>
-      <c r="E87" s="480"/>
+      <c r="E87" s="496"/>
       <c r="F87" s="79">
         <v>86</v>
       </c>
@@ -10979,19 +10978,19 @@
         <v>10</v>
       </c>
       <c r="P87" s="387"/>
-      <c r="Q87" s="493" t="s">
+      <c r="Q87" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R87" s="440"/>
       <c r="S87" s="11"/>
       <c r="T87" s="11"/>
-      <c r="U87" s="480"/>
+      <c r="U87" s="496"/>
       <c r="V87" s="278" t="str">
         <f t="shared" si="3"/>
         <v>MOVIMIENTOS CUENTA</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="40.9" customHeight="1">
+    <row r="88" spans="1:22" ht="40.950000000000003" customHeight="1">
       <c r="A88" s="245">
         <v>105</v>
       </c>
@@ -11005,7 +11004,7 @@
       <c r="D88" s="219">
         <v>16</v>
       </c>
-      <c r="E88" s="480"/>
+      <c r="E88" s="496"/>
       <c r="F88" s="79">
         <v>87</v>
       </c>
@@ -11031,19 +11030,19 @@
         <v>10</v>
       </c>
       <c r="P88" s="387"/>
-      <c r="Q88" s="493">
+      <c r="Q88" s="471">
         <v>4</v>
       </c>
       <c r="R88" s="440"/>
       <c r="S88" s="11"/>
       <c r="T88" s="11"/>
-      <c r="U88" s="480"/>
+      <c r="U88" s="496"/>
       <c r="V88" s="278" t="str">
         <f t="shared" si="3"/>
         <v>MOVIMIENTOS CUENTA</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="37.9" customHeight="1">
+    <row r="89" spans="1:22" ht="37.950000000000003" customHeight="1">
       <c r="A89" s="245">
         <v>104</v>
       </c>
@@ -11057,7 +11056,7 @@
       <c r="D89" s="219">
         <v>16</v>
       </c>
-      <c r="E89" s="480"/>
+      <c r="E89" s="496"/>
       <c r="F89" s="79">
         <v>88</v>
       </c>
@@ -11083,19 +11082,19 @@
         <v>10</v>
       </c>
       <c r="P89" s="387"/>
-      <c r="Q89" s="493">
+      <c r="Q89" s="471">
         <v>4</v>
       </c>
       <c r="R89" s="440"/>
       <c r="S89" s="11"/>
       <c r="T89" s="11"/>
-      <c r="U89" s="480"/>
+      <c r="U89" s="496"/>
       <c r="V89" s="278" t="str">
         <f t="shared" si="3"/>
         <v>MOVIMIENTOS CUENTA</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="40.9" customHeight="1">
+    <row r="90" spans="1:22" ht="40.950000000000003" customHeight="1">
       <c r="A90" s="245">
         <v>100</v>
       </c>
@@ -11109,7 +11108,7 @@
       <c r="D90" s="219">
         <v>16</v>
       </c>
-      <c r="E90" s="480"/>
+      <c r="E90" s="496"/>
       <c r="F90" s="79">
         <v>89</v>
       </c>
@@ -11135,19 +11134,19 @@
         <v>10</v>
       </c>
       <c r="P90" s="387"/>
-      <c r="Q90" s="493" t="s">
+      <c r="Q90" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R90" s="440"/>
       <c r="S90" s="11"/>
       <c r="T90" s="11"/>
-      <c r="U90" s="480"/>
+      <c r="U90" s="496"/>
       <c r="V90" s="278" t="str">
         <f t="shared" si="3"/>
         <v>MOVIMIENTOS CUENTA</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="37.9" customHeight="1">
+    <row r="91" spans="1:22" ht="37.950000000000003" customHeight="1">
       <c r="A91" s="245">
         <v>109</v>
       </c>
@@ -11161,7 +11160,7 @@
       <c r="D91" s="219">
         <v>16</v>
       </c>
-      <c r="E91" s="480"/>
+      <c r="E91" s="496"/>
       <c r="F91" s="79">
         <v>90</v>
       </c>
@@ -11187,13 +11186,13 @@
         <v>10</v>
       </c>
       <c r="P91" s="387"/>
-      <c r="Q91" s="493">
+      <c r="Q91" s="471">
         <v>3</v>
       </c>
       <c r="R91" s="440"/>
       <c r="S91" s="11"/>
       <c r="T91" s="11"/>
-      <c r="U91" s="480"/>
+      <c r="U91" s="496"/>
       <c r="V91" s="278" t="str">
         <f t="shared" si="3"/>
         <v>MOVIMIENTOS CUENTA</v>
@@ -11213,7 +11212,7 @@
       <c r="D92" s="220">
         <v>17</v>
       </c>
-      <c r="E92" s="470" t="s">
+      <c r="E92" s="497" t="s">
         <v>328</v>
       </c>
       <c r="F92" s="81">
@@ -11241,13 +11240,13 @@
         <v>4</v>
       </c>
       <c r="P92" s="387"/>
-      <c r="Q92" s="493" t="s">
+      <c r="Q92" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R92" s="440"/>
       <c r="S92" s="11"/>
       <c r="T92" s="11"/>
-      <c r="U92" s="470" t="s">
+      <c r="U92" s="497" t="s">
         <v>328</v>
       </c>
       <c r="V92" s="279" t="str">
@@ -11269,7 +11268,7 @@
       <c r="D93" s="220">
         <v>17</v>
       </c>
-      <c r="E93" s="470"/>
+      <c r="E93" s="497"/>
       <c r="F93" s="81">
         <v>92</v>
       </c>
@@ -11295,19 +11294,19 @@
         <v>4</v>
       </c>
       <c r="P93" s="387"/>
-      <c r="Q93" s="493" t="s">
+      <c r="Q93" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R93" s="440"/>
       <c r="S93" s="11"/>
       <c r="T93" s="11"/>
-      <c r="U93" s="470"/>
+      <c r="U93" s="497"/>
       <c r="V93" s="279" t="str">
         <f t="shared" si="3"/>
         <v>CHEQUES RECHAZADOS</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="34.15" customHeight="1">
+    <row r="94" spans="1:22" ht="34.200000000000003" customHeight="1">
       <c r="A94" s="245">
         <v>117</v>
       </c>
@@ -11321,7 +11320,7 @@
       <c r="D94" s="220">
         <v>17</v>
       </c>
-      <c r="E94" s="470"/>
+      <c r="E94" s="497"/>
       <c r="F94" s="81">
         <v>93</v>
       </c>
@@ -11347,13 +11346,13 @@
         <v>4</v>
       </c>
       <c r="P94" s="387"/>
-      <c r="Q94" s="493" t="s">
+      <c r="Q94" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R94" s="440"/>
       <c r="S94" s="11"/>
       <c r="T94" s="11"/>
-      <c r="U94" s="470"/>
+      <c r="U94" s="497"/>
       <c r="V94" s="279" t="str">
         <f t="shared" si="3"/>
         <v>CHEQUES RECHAZADOS</v>
@@ -11373,7 +11372,7 @@
       <c r="D95" s="220">
         <v>17</v>
       </c>
-      <c r="E95" s="470"/>
+      <c r="E95" s="497"/>
       <c r="F95" s="81">
         <v>94</v>
       </c>
@@ -11399,19 +11398,19 @@
         <v>4</v>
       </c>
       <c r="P95" s="387"/>
-      <c r="Q95" s="493" t="s">
+      <c r="Q95" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R95" s="440"/>
       <c r="S95" s="11"/>
       <c r="T95" s="11"/>
-      <c r="U95" s="470"/>
+      <c r="U95" s="497"/>
       <c r="V95" s="279" t="str">
         <f t="shared" si="3"/>
         <v>CHEQUES RECHAZADOS</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="26.65" customHeight="1">
+    <row r="96" spans="1:22" ht="26.7" customHeight="1">
       <c r="A96" s="245">
         <v>58</v>
       </c>
@@ -11453,7 +11452,7 @@
         <v>10</v>
       </c>
       <c r="P96" s="387"/>
-      <c r="Q96" s="493" t="s">
+      <c r="Q96" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R96" s="440"/>
@@ -11507,7 +11506,7 @@
         <v>10</v>
       </c>
       <c r="P97" s="387"/>
-      <c r="Q97" s="493" t="s">
+      <c r="Q97" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R97" s="440"/>
@@ -11561,7 +11560,7 @@
         <v>10</v>
       </c>
       <c r="P98" s="387"/>
-      <c r="Q98" s="493" t="s">
+      <c r="Q98" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R98" s="440"/>
@@ -11617,7 +11616,7 @@
         <v>377</v>
       </c>
       <c r="P99" s="387"/>
-      <c r="Q99" s="493" t="s">
+      <c r="Q99" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R99" s="440"/>
@@ -11643,7 +11642,7 @@
       <c r="D100" s="223">
         <v>20</v>
       </c>
-      <c r="E100" s="471" t="s">
+      <c r="E100" s="498" t="s">
         <v>331</v>
       </c>
       <c r="F100" s="89">
@@ -11671,13 +11670,13 @@
         <v>10</v>
       </c>
       <c r="P100" s="387"/>
-      <c r="Q100" s="493" t="s">
+      <c r="Q100" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R100" s="440"/>
       <c r="S100" s="11"/>
       <c r="T100" s="11"/>
-      <c r="U100" s="471" t="s">
+      <c r="U100" s="498" t="s">
         <v>331</v>
       </c>
       <c r="V100" s="282" t="str">
@@ -11699,7 +11698,7 @@
       <c r="D101" s="223">
         <v>20</v>
       </c>
-      <c r="E101" s="471"/>
+      <c r="E101" s="498"/>
       <c r="F101" s="89">
         <v>100</v>
       </c>
@@ -11725,13 +11724,13 @@
         <v>10</v>
       </c>
       <c r="P101" s="387"/>
-      <c r="Q101" s="493" t="s">
+      <c r="Q101" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R101" s="440"/>
       <c r="S101" s="11"/>
       <c r="T101" s="11"/>
-      <c r="U101" s="471"/>
+      <c r="U101" s="498"/>
       <c r="V101" s="282" t="str">
         <f t="shared" si="3"/>
         <v>OPER_CAJA</v>
@@ -11751,7 +11750,7 @@
       <c r="D102" s="223">
         <v>20</v>
       </c>
-      <c r="E102" s="471"/>
+      <c r="E102" s="498"/>
       <c r="F102" s="89">
         <v>101</v>
       </c>
@@ -11779,13 +11778,13 @@
         <v>9</v>
       </c>
       <c r="P102" s="387"/>
-      <c r="Q102" s="493" t="s">
+      <c r="Q102" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R102" s="440"/>
       <c r="S102" s="11"/>
       <c r="T102" s="11"/>
-      <c r="U102" s="471"/>
+      <c r="U102" s="498"/>
       <c r="V102" s="282" t="str">
         <f t="shared" si="3"/>
         <v>OPER_CAJA</v>
@@ -11805,7 +11804,7 @@
       <c r="D103" s="223">
         <v>20</v>
       </c>
-      <c r="E103" s="471"/>
+      <c r="E103" s="498"/>
       <c r="F103" s="89">
         <v>102</v>
       </c>
@@ -11831,13 +11830,13 @@
         <v>10</v>
       </c>
       <c r="P103" s="387"/>
-      <c r="Q103" s="493" t="s">
+      <c r="Q103" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R103" s="440"/>
       <c r="S103" s="11"/>
       <c r="T103" s="11"/>
-      <c r="U103" s="471"/>
+      <c r="U103" s="498"/>
       <c r="V103" s="282" t="str">
         <f t="shared" si="3"/>
         <v>OPER_CAJA</v>
@@ -11857,7 +11856,7 @@
       <c r="D104" s="223">
         <v>20</v>
       </c>
-      <c r="E104" s="471"/>
+      <c r="E104" s="498"/>
       <c r="F104" s="89">
         <v>103</v>
       </c>
@@ -11883,19 +11882,19 @@
         <v>10</v>
       </c>
       <c r="P104" s="387"/>
-      <c r="Q104" s="493">
+      <c r="Q104" s="471">
         <v>3</v>
       </c>
       <c r="R104" s="440"/>
       <c r="S104" s="11"/>
       <c r="T104" s="11"/>
-      <c r="U104" s="471"/>
+      <c r="U104" s="498"/>
       <c r="V104" s="282" t="str">
         <f t="shared" si="3"/>
         <v>OPER_CAJA</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="35.450000000000003" customHeight="1">
+    <row r="105" spans="1:22" ht="35.4" customHeight="1">
       <c r="A105" s="245">
         <v>47</v>
       </c>
@@ -11909,7 +11908,7 @@
       <c r="D105" s="224">
         <v>21</v>
       </c>
-      <c r="E105" s="472" t="s">
+      <c r="E105" s="499" t="s">
         <v>332</v>
       </c>
       <c r="F105" s="91">
@@ -11937,13 +11936,13 @@
         <v>10</v>
       </c>
       <c r="P105" s="387"/>
-      <c r="Q105" s="493" t="s">
+      <c r="Q105" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R105" s="440"/>
       <c r="S105" s="11"/>
       <c r="T105" s="11"/>
-      <c r="U105" s="472" t="s">
+      <c r="U105" s="499" t="s">
         <v>332</v>
       </c>
       <c r="V105" s="283" t="str">
@@ -11951,7 +11950,7 @@
         <v>OPER_CAJERO</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="35.450000000000003" customHeight="1">
+    <row r="106" spans="1:22" ht="35.4" customHeight="1">
       <c r="A106" s="245">
         <v>44</v>
       </c>
@@ -11965,7 +11964,7 @@
       <c r="D106" s="224">
         <v>21</v>
       </c>
-      <c r="E106" s="472"/>
+      <c r="E106" s="499"/>
       <c r="F106" s="91">
         <v>105</v>
       </c>
@@ -11991,19 +11990,19 @@
         <v>10</v>
       </c>
       <c r="P106" s="387"/>
-      <c r="Q106" s="493">
+      <c r="Q106" s="471">
         <v>2</v>
       </c>
       <c r="R106" s="440"/>
       <c r="S106" s="11"/>
       <c r="T106" s="11"/>
-      <c r="U106" s="472"/>
+      <c r="U106" s="499"/>
       <c r="V106" s="283" t="str">
         <f t="shared" si="3"/>
         <v>OPER_CAJERO</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="35.450000000000003" customHeight="1">
+    <row r="107" spans="1:22" ht="35.4" customHeight="1">
       <c r="A107" s="245">
         <v>79</v>
       </c>
@@ -12017,7 +12016,7 @@
       <c r="D107" s="224">
         <v>21</v>
       </c>
-      <c r="E107" s="472"/>
+      <c r="E107" s="499"/>
       <c r="F107" s="91">
         <v>106</v>
       </c>
@@ -12043,19 +12042,19 @@
         <v>10</v>
       </c>
       <c r="P107" s="387"/>
-      <c r="Q107" s="493" t="s">
+      <c r="Q107" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R107" s="440"/>
       <c r="S107" s="11"/>
       <c r="T107" s="11"/>
-      <c r="U107" s="472"/>
+      <c r="U107" s="499"/>
       <c r="V107" s="283" t="str">
         <f t="shared" si="3"/>
         <v>OPER_CAJERO</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="35.450000000000003" customHeight="1">
+    <row r="108" spans="1:22" ht="35.4" customHeight="1">
       <c r="A108" s="245">
         <v>84</v>
       </c>
@@ -12069,7 +12068,7 @@
       <c r="D108" s="224">
         <v>21</v>
       </c>
-      <c r="E108" s="472"/>
+      <c r="E108" s="499"/>
       <c r="F108" s="91">
         <v>107</v>
       </c>
@@ -12095,19 +12094,19 @@
         <v>10</v>
       </c>
       <c r="P108" s="387"/>
-      <c r="Q108" s="493">
+      <c r="Q108" s="471">
         <v>2</v>
       </c>
       <c r="R108" s="440"/>
       <c r="S108" s="11"/>
       <c r="T108" s="11"/>
-      <c r="U108" s="472"/>
+      <c r="U108" s="499"/>
       <c r="V108" s="283" t="str">
         <f t="shared" si="3"/>
         <v>OPER_CAJERO</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="42.95" customHeight="1">
+    <row r="109" spans="1:22" ht="42.9" customHeight="1">
       <c r="A109" s="245">
         <v>1</v>
       </c>
@@ -12149,7 +12148,7 @@
         <v>10</v>
       </c>
       <c r="P109" s="387"/>
-      <c r="Q109" s="495" t="s">
+      <c r="Q109" s="473" t="s">
         <v>359</v>
       </c>
       <c r="R109" s="441"/>
@@ -12163,7 +12162,7 @@
         <v>OPER VOLUNTARIAS</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="42.95" customHeight="1">
+    <row r="110" spans="1:22" ht="42.9" customHeight="1">
       <c r="A110" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -12177,7 +12176,7 @@
       <c r="D110" s="222">
         <v>23</v>
       </c>
-      <c r="E110" s="473" t="s">
+      <c r="E110" s="489" t="s">
         <v>334</v>
       </c>
       <c r="F110" s="87">
@@ -12205,13 +12204,13 @@
         <v>10</v>
       </c>
       <c r="P110" s="387"/>
-      <c r="Q110" s="493" t="s">
+      <c r="Q110" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R110" s="440"/>
       <c r="S110" s="11"/>
       <c r="T110" s="11"/>
-      <c r="U110" s="473" t="s">
+      <c r="U110" s="489" t="s">
         <v>334</v>
       </c>
       <c r="V110" s="281" t="str">
@@ -12219,7 +12218,7 @@
         <v>OPER_MOBIL</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="42.95" customHeight="1" thickBot="1">
+    <row r="111" spans="1:22" ht="42.9" customHeight="1" thickBot="1">
       <c r="A111" s="245">
         <v>74</v>
       </c>
@@ -12233,7 +12232,7 @@
       <c r="D111" s="222">
         <v>23</v>
       </c>
-      <c r="E111" s="473"/>
+      <c r="E111" s="489"/>
       <c r="F111" s="87">
         <v>110</v>
       </c>
@@ -12261,19 +12260,19 @@
         <v>10</v>
       </c>
       <c r="P111" s="387"/>
-      <c r="Q111" s="493" t="s">
+      <c r="Q111" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R111" s="440"/>
       <c r="S111" s="11"/>
       <c r="T111" s="11"/>
-      <c r="U111" s="473"/>
+      <c r="U111" s="489"/>
       <c r="V111" s="281" t="str">
         <f t="shared" si="3"/>
         <v>OPER_MOBIL</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="60.4" customHeight="1" thickBot="1">
+    <row r="112" spans="1:22" ht="60.45" customHeight="1" thickBot="1">
       <c r="A112" s="246" t="e">
         <v>#N/A</v>
       </c>
@@ -12287,7 +12286,7 @@
       <c r="D112" s="215">
         <v>24</v>
       </c>
-      <c r="E112" s="474" t="s">
+      <c r="E112" s="490" t="s">
         <v>336</v>
       </c>
       <c r="F112" s="99">
@@ -12311,13 +12310,13 @@
       <c r="N112" s="395"/>
       <c r="O112" s="396"/>
       <c r="P112" s="394"/>
-      <c r="Q112" s="496" t="s">
+      <c r="Q112" s="474" t="s">
         <v>359</v>
       </c>
       <c r="R112" s="442"/>
       <c r="S112" s="11"/>
       <c r="T112" s="11"/>
-      <c r="U112" s="474" t="s">
+      <c r="U112" s="490" t="s">
         <v>336</v>
       </c>
       <c r="V112" s="285" t="str">
@@ -12339,7 +12338,7 @@
       <c r="D113" s="104">
         <v>24</v>
       </c>
-      <c r="E113" s="475"/>
+      <c r="E113" s="491"/>
       <c r="F113" s="103">
         <v>112</v>
       </c>
@@ -12361,13 +12360,13 @@
       <c r="N113" s="303"/>
       <c r="O113" s="426"/>
       <c r="P113" s="425"/>
-      <c r="Q113" s="497" t="s">
+      <c r="Q113" s="475" t="s">
         <v>359</v>
       </c>
       <c r="R113" s="454"/>
       <c r="S113"/>
       <c r="T113" s="11"/>
-      <c r="U113" s="475"/>
+      <c r="U113" s="491"/>
       <c r="V113" s="286" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
@@ -12387,7 +12386,7 @@
       <c r="D114" s="215">
         <v>24</v>
       </c>
-      <c r="E114" s="474"/>
+      <c r="E114" s="490"/>
       <c r="F114" s="109">
         <v>113</v>
       </c>
@@ -12415,7 +12414,7 @@
       <c r="P114" s="458" t="s">
         <v>378</v>
       </c>
-      <c r="Q114" s="498" t="s">
+      <c r="Q114" s="476" t="s">
         <v>390</v>
       </c>
       <c r="R114" s="443" t="s">
@@ -12423,13 +12422,13 @@
       </c>
       <c r="S114"/>
       <c r="T114" s="11"/>
-      <c r="U114" s="474"/>
+      <c r="U114" s="490"/>
       <c r="V114" s="285" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="115" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A115" s="245">
         <v>33</v>
       </c>
@@ -12443,7 +12442,7 @@
       <c r="D115" s="225">
         <v>24</v>
       </c>
-      <c r="E115" s="475"/>
+      <c r="E115" s="491"/>
       <c r="F115" s="112">
         <v>114</v>
       </c>
@@ -12467,19 +12466,19 @@
       <c r="N115" s="301"/>
       <c r="O115" s="401"/>
       <c r="P115" s="400"/>
-      <c r="Q115" s="499" t="s">
+      <c r="Q115" s="477" t="s">
         <v>359</v>
       </c>
       <c r="R115" s="444"/>
       <c r="S115"/>
       <c r="T115" s="11"/>
-      <c r="U115" s="475"/>
+      <c r="U115" s="491"/>
       <c r="V115" s="287" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="116" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A116" s="246" t="e">
         <v>#N/A</v>
       </c>
@@ -12493,7 +12492,7 @@
       <c r="D116" s="215">
         <v>24</v>
       </c>
-      <c r="E116" s="475"/>
+      <c r="E116" s="491"/>
       <c r="F116" s="99">
         <v>115</v>
       </c>
@@ -12519,19 +12518,19 @@
       <c r="P116" s="394" t="s">
         <v>380</v>
       </c>
-      <c r="Q116" s="496" t="s">
+      <c r="Q116" s="474" t="s">
         <v>359</v>
       </c>
       <c r="R116" s="442"/>
       <c r="S116"/>
       <c r="T116" s="11"/>
-      <c r="U116" s="475"/>
+      <c r="U116" s="491"/>
       <c r="V116" s="285" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="117" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A117" s="248">
         <v>38</v>
       </c>
@@ -12545,7 +12544,7 @@
       <c r="D117" s="214">
         <v>24</v>
       </c>
-      <c r="E117" s="474"/>
+      <c r="E117" s="490"/>
       <c r="F117" s="117">
         <v>116</v>
       </c>
@@ -12571,7 +12570,7 @@
       <c r="P117" s="402" t="s">
         <v>381</v>
       </c>
-      <c r="Q117" s="500" t="s">
+      <c r="Q117" s="478" t="s">
         <v>392</v>
       </c>
       <c r="R117" s="445"/>
@@ -12579,13 +12578,13 @@
       <c r="T117" s="121" t="s">
         <v>343</v>
       </c>
-      <c r="U117" s="474"/>
+      <c r="U117" s="490"/>
       <c r="V117" s="288" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="31.9" customHeight="1">
+    <row r="118" spans="1:22" ht="31.95" customHeight="1">
       <c r="A118" s="249">
         <v>39</v>
       </c>
@@ -12599,7 +12598,7 @@
       <c r="D118" s="215">
         <v>24</v>
       </c>
-      <c r="E118" s="474"/>
+      <c r="E118" s="490"/>
       <c r="F118" s="123">
         <v>117</v>
       </c>
@@ -12625,7 +12624,7 @@
       <c r="P118" s="387" t="s">
         <v>382</v>
       </c>
-      <c r="Q118" s="493" t="s">
+      <c r="Q118" s="471" t="s">
         <v>392</v>
       </c>
       <c r="R118" s="440"/>
@@ -12633,13 +12632,13 @@
       <c r="T118" s="125" t="s">
         <v>342</v>
       </c>
-      <c r="U118" s="474"/>
+      <c r="U118" s="490"/>
       <c r="V118" s="285" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="119" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A119" s="250">
         <v>108</v>
       </c>
@@ -12653,7 +12652,7 @@
       <c r="D119" s="215">
         <v>24</v>
       </c>
-      <c r="E119" s="474"/>
+      <c r="E119" s="490"/>
       <c r="F119" s="128">
         <v>118</v>
       </c>
@@ -12677,19 +12676,19 @@
       <c r="N119" s="406"/>
       <c r="O119" s="407"/>
       <c r="P119" s="405"/>
-      <c r="Q119" s="501" t="s">
+      <c r="Q119" s="479" t="s">
         <v>391</v>
       </c>
       <c r="R119" s="446"/>
       <c r="S119"/>
       <c r="T119" s="11"/>
-      <c r="U119" s="474"/>
+      <c r="U119" s="490"/>
       <c r="V119" s="285" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="120" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A120" s="251">
         <v>71</v>
       </c>
@@ -12703,7 +12702,7 @@
       <c r="D120" s="215">
         <v>24</v>
       </c>
-      <c r="E120" s="474"/>
+      <c r="E120" s="490"/>
       <c r="F120" s="134">
         <v>119</v>
       </c>
@@ -12729,7 +12728,7 @@
       <c r="N120" s="409"/>
       <c r="O120" s="410"/>
       <c r="P120" s="408"/>
-      <c r="Q120" s="502" t="s">
+      <c r="Q120" s="480" t="s">
         <v>392</v>
       </c>
       <c r="R120" s="447"/>
@@ -12737,13 +12736,13 @@
       <c r="T120" s="121" t="s">
         <v>343</v>
       </c>
-      <c r="U120" s="474"/>
+      <c r="U120" s="490"/>
       <c r="V120" s="289" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="121" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A121" s="252">
         <v>107</v>
       </c>
@@ -12757,7 +12756,7 @@
       <c r="D121" s="215">
         <v>24</v>
       </c>
-      <c r="E121" s="474"/>
+      <c r="E121" s="490"/>
       <c r="F121" s="140">
         <v>120</v>
       </c>
@@ -12783,7 +12782,7 @@
       <c r="N121" s="412"/>
       <c r="O121" s="413"/>
       <c r="P121" s="411"/>
-      <c r="Q121" s="503" t="s">
+      <c r="Q121" s="481" t="s">
         <v>391</v>
       </c>
       <c r="R121" s="448"/>
@@ -12791,13 +12790,13 @@
       <c r="T121" s="144" t="s">
         <v>344</v>
       </c>
-      <c r="U121" s="474"/>
+      <c r="U121" s="490"/>
       <c r="V121" s="289" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="31.9" customHeight="1" thickTop="1" thickBot="1">
+    <row r="122" spans="1:22" ht="31.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A122" s="253" t="e">
         <v>#N/A</v>
       </c>
@@ -12811,7 +12810,7 @@
       <c r="D122" s="226">
         <v>24</v>
       </c>
-      <c r="E122" s="474"/>
+      <c r="E122" s="490"/>
       <c r="F122" s="147">
         <v>121</v>
       </c>
@@ -12835,19 +12834,19 @@
       <c r="N122" s="415"/>
       <c r="O122" s="416"/>
       <c r="P122" s="414"/>
-      <c r="Q122" s="504" t="s">
+      <c r="Q122" s="482" t="s">
         <v>389</v>
       </c>
       <c r="R122" s="449"/>
       <c r="S122" s="11"/>
       <c r="T122"/>
-      <c r="U122" s="474"/>
+      <c r="U122" s="490"/>
       <c r="V122" s="290" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="31.9" customHeight="1">
+    <row r="123" spans="1:22" ht="31.95" customHeight="1">
       <c r="A123" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -12861,7 +12860,7 @@
       <c r="D123" s="215">
         <v>24</v>
       </c>
-      <c r="E123" s="475"/>
+      <c r="E123" s="491"/>
       <c r="F123" s="151">
         <v>122</v>
       </c>
@@ -12887,19 +12886,19 @@
       <c r="N123" s="301"/>
       <c r="O123" s="401"/>
       <c r="P123" s="400"/>
-      <c r="Q123" s="499" t="s">
+      <c r="Q123" s="477" t="s">
         <v>359</v>
       </c>
       <c r="R123" s="444"/>
       <c r="S123" s="11"/>
       <c r="T123" s="11"/>
-      <c r="U123" s="475"/>
+      <c r="U123" s="491"/>
       <c r="V123" s="285" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="31.9" customHeight="1">
+    <row r="124" spans="1:22" ht="31.95" customHeight="1">
       <c r="A124" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -12913,7 +12912,7 @@
       <c r="D124" s="215">
         <v>24</v>
       </c>
-      <c r="E124" s="475"/>
+      <c r="E124" s="491"/>
       <c r="F124" s="124">
         <v>123</v>
       </c>
@@ -12939,19 +12938,19 @@
       <c r="N124" s="300"/>
       <c r="O124" s="388"/>
       <c r="P124" s="387"/>
-      <c r="Q124" s="493" t="s">
+      <c r="Q124" s="471" t="s">
         <v>359</v>
       </c>
       <c r="R124" s="440"/>
       <c r="S124" s="11"/>
       <c r="T124" s="11"/>
-      <c r="U124" s="475"/>
+      <c r="U124" s="491"/>
       <c r="V124" s="285" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="125" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A125" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -12965,7 +12964,7 @@
       <c r="D125" s="225">
         <v>24</v>
       </c>
-      <c r="E125" s="475"/>
+      <c r="E125" s="491"/>
       <c r="F125" s="153">
         <v>124</v>
       </c>
@@ -12995,19 +12994,19 @@
         <v>7</v>
       </c>
       <c r="P125" s="450"/>
-      <c r="Q125" s="505" t="s">
+      <c r="Q125" s="483" t="s">
         <v>359</v>
       </c>
       <c r="R125" s="451"/>
       <c r="S125" s="11"/>
       <c r="T125" s="11"/>
-      <c r="U125" s="475"/>
+      <c r="U125" s="491"/>
       <c r="V125" s="287" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="31.9" customHeight="1" thickTop="1">
+    <row r="126" spans="1:22" ht="31.95" customHeight="1" thickTop="1">
       <c r="A126" s="254">
         <v>111</v>
       </c>
@@ -13021,7 +13020,7 @@
       <c r="D126" s="215">
         <v>24</v>
       </c>
-      <c r="E126" s="474"/>
+      <c r="E126" s="490"/>
       <c r="F126" s="158">
         <v>125</v>
       </c>
@@ -13049,19 +13048,19 @@
         <v>10</v>
       </c>
       <c r="P126" s="419"/>
-      <c r="Q126" s="506" t="s">
+      <c r="Q126" s="484" t="s">
         <v>392</v>
       </c>
       <c r="R126" s="452"/>
       <c r="S126" s="11"/>
       <c r="T126" s="11"/>
-      <c r="U126" s="474"/>
+      <c r="U126" s="490"/>
       <c r="V126" s="289" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="31.9" customHeight="1">
+    <row r="127" spans="1:22" ht="31.95" customHeight="1">
       <c r="A127" s="255">
         <v>75</v>
       </c>
@@ -13075,7 +13074,7 @@
       <c r="D127" s="215">
         <v>24</v>
       </c>
-      <c r="E127" s="474"/>
+      <c r="E127" s="490"/>
       <c r="F127" s="163">
         <v>126</v>
       </c>
@@ -13101,19 +13100,19 @@
       <c r="N127" s="300"/>
       <c r="O127" s="388"/>
       <c r="P127" s="387"/>
-      <c r="Q127" s="493" t="s">
+      <c r="Q127" s="471" t="s">
         <v>392</v>
       </c>
       <c r="R127" s="440"/>
       <c r="S127" s="11"/>
       <c r="T127" s="11"/>
-      <c r="U127" s="474"/>
+      <c r="U127" s="490"/>
       <c r="V127" s="285" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="128" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A128" s="256">
         <v>87</v>
       </c>
@@ -13127,7 +13126,7 @@
       <c r="D128" s="215">
         <v>24</v>
       </c>
-      <c r="E128" s="474"/>
+      <c r="E128" s="490"/>
       <c r="F128" s="166">
         <v>127</v>
       </c>
@@ -13153,19 +13152,19 @@
       <c r="N128" s="423"/>
       <c r="O128" s="424"/>
       <c r="P128" s="422"/>
-      <c r="Q128" s="507" t="s">
+      <c r="Q128" s="485" t="s">
         <v>391</v>
       </c>
       <c r="R128" s="453"/>
       <c r="S128" s="11"/>
       <c r="T128" s="11"/>
-      <c r="U128" s="474"/>
+      <c r="U128" s="490"/>
       <c r="V128" s="285" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="31.9" customHeight="1" thickTop="1" thickBot="1">
+    <row r="129" spans="1:22" ht="31.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A129" s="245">
         <v>31</v>
       </c>
@@ -13179,7 +13178,7 @@
       <c r="D129" s="225">
         <v>24</v>
       </c>
-      <c r="E129" s="475"/>
+      <c r="E129" s="491"/>
       <c r="F129" s="170">
         <v>128</v>
       </c>
@@ -13203,17 +13202,17 @@
       <c r="N129" s="303"/>
       <c r="O129" s="426"/>
       <c r="P129" s="425"/>
-      <c r="Q129" s="497"/>
+      <c r="Q129" s="475"/>
       <c r="R129" s="454"/>
       <c r="S129" s="11"/>
       <c r="T129" s="11"/>
-      <c r="U129" s="475"/>
+      <c r="U129" s="491"/>
       <c r="V129" s="287" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="31.9" customHeight="1" thickTop="1">
+    <row r="130" spans="1:22" ht="31.95" customHeight="1" thickTop="1">
       <c r="A130" s="257">
         <v>72</v>
       </c>
@@ -13227,7 +13226,7 @@
       <c r="D130" s="214">
         <v>24</v>
       </c>
-      <c r="E130" s="474"/>
+      <c r="E130" s="490"/>
       <c r="F130" s="175">
         <v>129</v>
       </c>
@@ -13253,19 +13252,19 @@
       <c r="N130" s="428"/>
       <c r="O130" s="429"/>
       <c r="P130" s="427"/>
-      <c r="Q130" s="508" t="s">
+      <c r="Q130" s="486" t="s">
         <v>392</v>
       </c>
       <c r="R130" s="455"/>
       <c r="S130" s="11"/>
       <c r="T130" s="11"/>
-      <c r="U130" s="474"/>
+      <c r="U130" s="490"/>
       <c r="V130" s="288" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="131" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A131" s="252">
         <v>73</v>
       </c>
@@ -13279,7 +13278,7 @@
       <c r="D131" s="215">
         <v>24</v>
       </c>
-      <c r="E131" s="474"/>
+      <c r="E131" s="490"/>
       <c r="F131" s="179">
         <v>130</v>
       </c>
@@ -13305,19 +13304,19 @@
       <c r="N131" s="412"/>
       <c r="O131" s="413"/>
       <c r="P131" s="411"/>
-      <c r="Q131" s="503" t="s">
+      <c r="Q131" s="481" t="s">
         <v>359</v>
       </c>
       <c r="R131" s="448"/>
       <c r="S131" s="11"/>
       <c r="T131" s="11"/>
-      <c r="U131" s="474"/>
+      <c r="U131" s="490"/>
       <c r="V131" s="285" t="str">
         <f t="shared" si="3"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="31.9" customHeight="1" thickTop="1" thickBot="1">
+    <row r="132" spans="1:22" ht="31.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A132" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -13331,7 +13330,7 @@
       <c r="D132" s="215">
         <v>24</v>
       </c>
-      <c r="E132" s="475"/>
+      <c r="E132" s="491"/>
       <c r="F132" s="151">
         <v>131</v>
       </c>
@@ -13357,7 +13356,7 @@
       <c r="N132" s="301"/>
       <c r="O132" s="401"/>
       <c r="P132" s="400"/>
-      <c r="Q132" s="499" t="s">
+      <c r="Q132" s="477" t="s">
         <v>359</v>
       </c>
       <c r="R132" s="444"/>
@@ -13365,13 +13364,13 @@
       <c r="T132" s="121" t="s">
         <v>343</v>
       </c>
-      <c r="U132" s="475"/>
+      <c r="U132" s="491"/>
       <c r="V132" s="285" t="str">
         <f t="shared" ref="V132:V156" si="7">IF(U132="",V131,U132)</f>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="45.75" thickBot="1">
+    <row r="133" spans="1:22" ht="42" thickBot="1">
       <c r="A133" s="245">
         <v>35</v>
       </c>
@@ -13385,7 +13384,7 @@
       <c r="D133" s="215">
         <v>24</v>
       </c>
-      <c r="E133" s="475"/>
+      <c r="E133" s="491"/>
       <c r="F133" s="124">
         <v>132</v>
       </c>
@@ -13411,7 +13410,7 @@
       <c r="P133" s="387" t="s">
         <v>384</v>
       </c>
-      <c r="Q133" s="495" t="s">
+      <c r="Q133" s="473" t="s">
         <v>392</v>
       </c>
       <c r="R133" s="441"/>
@@ -13419,13 +13418,13 @@
       <c r="T133" s="183" t="s">
         <v>345</v>
       </c>
-      <c r="U133" s="475"/>
+      <c r="U133" s="491"/>
       <c r="V133" s="285" t="str">
         <f t="shared" si="7"/>
         <v>MASTER_RESUME</v>
       </c>
     </row>
-    <row r="134" spans="1:22" ht="43.5" thickBot="1">
+    <row r="134" spans="1:22" ht="42" thickBot="1">
       <c r="A134" s="246">
         <v>113</v>
       </c>
@@ -13439,7 +13438,7 @@
       <c r="D134" s="217">
         <v>25</v>
       </c>
-      <c r="E134" s="468" t="s">
+      <c r="E134" s="492" t="s">
         <v>346</v>
       </c>
       <c r="F134" s="184">
@@ -13465,13 +13464,13 @@
       <c r="N134" s="395"/>
       <c r="O134" s="396"/>
       <c r="P134" s="394"/>
-      <c r="Q134" s="496" t="s">
+      <c r="Q134" s="474" t="s">
         <v>359</v>
       </c>
       <c r="R134" s="442"/>
       <c r="S134"/>
       <c r="T134" s="186"/>
-      <c r="U134" s="468" t="s">
+      <c r="U134" s="492" t="s">
         <v>346</v>
       </c>
       <c r="V134" s="291" t="str">
@@ -13493,7 +13492,7 @@
       <c r="D135" s="104">
         <v>25</v>
       </c>
-      <c r="E135" s="469"/>
+      <c r="E135" s="493"/>
       <c r="F135" s="187">
         <v>134</v>
       </c>
@@ -13517,19 +13516,19 @@
       <c r="N135" s="303"/>
       <c r="O135" s="426"/>
       <c r="P135" s="425"/>
-      <c r="Q135" s="497" t="s">
+      <c r="Q135" s="475" t="s">
         <v>359</v>
       </c>
       <c r="R135" s="454"/>
       <c r="S135"/>
       <c r="T135" s="11"/>
-      <c r="U135" s="469"/>
+      <c r="U135" s="493"/>
       <c r="V135" s="286" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="136" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A136" s="247">
         <v>50</v>
       </c>
@@ -13543,7 +13542,7 @@
       <c r="D136" s="217">
         <v>25</v>
       </c>
-      <c r="E136" s="468"/>
+      <c r="E136" s="492"/>
       <c r="F136" s="188">
         <v>135</v>
       </c>
@@ -13573,7 +13572,7 @@
       <c r="P136" s="397">
         <v>201904</v>
       </c>
-      <c r="Q136" s="509" t="s">
+      <c r="Q136" s="487" t="s">
         <v>390</v>
       </c>
       <c r="R136" s="456" t="s">
@@ -13581,13 +13580,13 @@
       </c>
       <c r="S136"/>
       <c r="T136" s="11"/>
-      <c r="U136" s="468"/>
+      <c r="U136" s="492"/>
       <c r="V136" s="291" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="137" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A137" s="245">
         <v>36</v>
       </c>
@@ -13601,7 +13600,7 @@
       <c r="D137" s="225">
         <v>25</v>
       </c>
-      <c r="E137" s="469"/>
+      <c r="E137" s="493"/>
       <c r="F137" s="112">
         <v>136</v>
       </c>
@@ -13625,19 +13624,19 @@
       <c r="N137" s="301"/>
       <c r="O137" s="401"/>
       <c r="P137" s="400"/>
-      <c r="Q137" s="499" t="s">
+      <c r="Q137" s="477" t="s">
         <v>359</v>
       </c>
       <c r="R137" s="444"/>
       <c r="S137"/>
       <c r="T137" s="11"/>
-      <c r="U137" s="469"/>
+      <c r="U137" s="493"/>
       <c r="V137" s="287" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="138" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A138" s="246" t="e">
         <v>#N/A</v>
       </c>
@@ -13651,7 +13650,7 @@
       <c r="D138" s="217">
         <v>25</v>
       </c>
-      <c r="E138" s="469"/>
+      <c r="E138" s="493"/>
       <c r="F138" s="184">
         <v>137</v>
       </c>
@@ -13675,19 +13674,19 @@
       <c r="N138" s="395"/>
       <c r="O138" s="396"/>
       <c r="P138" s="394"/>
-      <c r="Q138" s="496" t="s">
+      <c r="Q138" s="474" t="s">
         <v>359</v>
       </c>
       <c r="R138" s="442"/>
       <c r="S138"/>
       <c r="T138" s="11"/>
-      <c r="U138" s="469"/>
+      <c r="U138" s="493"/>
       <c r="V138" s="291" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="139" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A139" s="248">
         <v>23</v>
       </c>
@@ -13701,7 +13700,7 @@
       <c r="D139" s="216">
         <v>25</v>
       </c>
-      <c r="E139" s="468"/>
+      <c r="E139" s="492"/>
       <c r="F139" s="190">
         <v>138</v>
       </c>
@@ -13731,7 +13730,7 @@
       <c r="P139" s="402" t="s">
         <v>386</v>
       </c>
-      <c r="Q139" s="500" t="s">
+      <c r="Q139" s="478" t="s">
         <v>392</v>
       </c>
       <c r="R139" s="445"/>
@@ -13739,13 +13738,13 @@
       <c r="T139" s="121" t="s">
         <v>343</v>
       </c>
-      <c r="U139" s="468"/>
+      <c r="U139" s="492"/>
       <c r="V139" s="292" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="31.9" customHeight="1">
+    <row r="140" spans="1:22" ht="31.95" customHeight="1">
       <c r="A140" s="249">
         <v>24</v>
       </c>
@@ -13759,7 +13758,7 @@
       <c r="D140" s="217">
         <v>25</v>
       </c>
-      <c r="E140" s="468"/>
+      <c r="E140" s="492"/>
       <c r="F140" s="192">
         <v>139</v>
       </c>
@@ -13789,7 +13788,7 @@
       <c r="P140" s="387" t="s">
         <v>387</v>
       </c>
-      <c r="Q140" s="493" t="s">
+      <c r="Q140" s="471" t="s">
         <v>392</v>
       </c>
       <c r="R140" s="440"/>
@@ -13797,13 +13796,13 @@
       <c r="T140" s="125" t="s">
         <v>342</v>
       </c>
-      <c r="U140" s="468"/>
+      <c r="U140" s="492"/>
       <c r="V140" s="291" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="141" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A141" s="250">
         <v>91</v>
       </c>
@@ -13817,7 +13816,7 @@
       <c r="D141" s="217">
         <v>25</v>
       </c>
-      <c r="E141" s="468"/>
+      <c r="E141" s="492"/>
       <c r="F141" s="194">
         <v>140</v>
       </c>
@@ -13843,19 +13842,19 @@
       <c r="P141" s="405" t="s">
         <v>387</v>
       </c>
-      <c r="Q141" s="501" t="s">
+      <c r="Q141" s="479" t="s">
         <v>391</v>
       </c>
       <c r="R141" s="446"/>
       <c r="S141"/>
       <c r="T141" s="11"/>
-      <c r="U141" s="468"/>
+      <c r="U141" s="492"/>
       <c r="V141" s="291" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="142" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A142" s="251">
         <v>64</v>
       </c>
@@ -13869,7 +13868,7 @@
       <c r="D142" s="217">
         <v>25</v>
       </c>
-      <c r="E142" s="468"/>
+      <c r="E142" s="492"/>
       <c r="F142" s="196">
         <v>141</v>
       </c>
@@ -13895,7 +13894,7 @@
       <c r="N142" s="409"/>
       <c r="O142" s="410"/>
       <c r="P142" s="408"/>
-      <c r="Q142" s="502" t="s">
+      <c r="Q142" s="480" t="s">
         <v>392</v>
       </c>
       <c r="R142" s="447"/>
@@ -13903,13 +13902,13 @@
       <c r="T142" s="121" t="s">
         <v>343</v>
       </c>
-      <c r="U142" s="468"/>
+      <c r="U142" s="492"/>
       <c r="V142" s="293" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="31.9" customHeight="1" thickBot="1">
+    <row r="143" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
       <c r="A143" s="252" t="e">
         <v>#N/A</v>
       </c>
@@ -13923,7 +13922,7 @@
       <c r="D143" s="217">
         <v>25</v>
       </c>
-      <c r="E143" s="468"/>
+      <c r="E143" s="492"/>
       <c r="F143" s="198">
         <v>142</v>
       </c>
@@ -13949,7 +13948,7 @@
       <c r="N143" s="412"/>
       <c r="O143" s="413"/>
       <c r="P143" s="411"/>
-      <c r="Q143" s="503" t="s">
+      <c r="Q143" s="481" t="s">
         <v>391</v>
       </c>
       <c r="R143" s="448"/>
@@ -13957,13 +13956,13 @@
       <c r="T143" s="144" t="s">
         <v>344</v>
       </c>
-      <c r="U143" s="468"/>
+      <c r="U143" s="492"/>
       <c r="V143" s="293" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="31.9" customHeight="1" thickTop="1" thickBot="1">
+    <row r="144" spans="1:22" ht="31.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A144" s="253">
         <v>51</v>
       </c>
@@ -13977,7 +13976,7 @@
       <c r="D144" s="226">
         <v>25</v>
       </c>
-      <c r="E144" s="468"/>
+      <c r="E144" s="492"/>
       <c r="F144" s="463">
         <v>143</v>
       </c>
@@ -14001,19 +14000,19 @@
       <c r="N144" s="415"/>
       <c r="O144" s="416"/>
       <c r="P144" s="414"/>
-      <c r="Q144" s="504" t="s">
+      <c r="Q144" s="482" t="s">
         <v>389</v>
       </c>
       <c r="R144" s="449"/>
       <c r="S144" s="11"/>
       <c r="T144"/>
-      <c r="U144" s="468"/>
+      <c r="U144" s="492"/>
       <c r="V144" s="290" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="145" spans="1:27" ht="31.9" customHeight="1">
+    <row r="145" spans="1:27" ht="31.95" customHeight="1">
       <c r="A145" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -14027,7 +14026,7 @@
       <c r="D145" s="217">
         <v>25</v>
       </c>
-      <c r="E145" s="469"/>
+      <c r="E145" s="493"/>
       <c r="F145" s="200">
         <v>144</v>
       </c>
@@ -14053,19 +14052,19 @@
       <c r="N145" s="301"/>
       <c r="O145" s="401"/>
       <c r="P145" s="400"/>
-      <c r="Q145" s="499" t="s">
+      <c r="Q145" s="477" t="s">
         <v>391</v>
       </c>
       <c r="R145" s="444"/>
       <c r="S145" s="11"/>
       <c r="T145" s="11"/>
-      <c r="U145" s="469"/>
+      <c r="U145" s="493"/>
       <c r="V145" s="291" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="146" spans="1:27" ht="31.9" customHeight="1">
+    <row r="146" spans="1:27" ht="31.95" customHeight="1">
       <c r="A146" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -14079,7 +14078,7 @@
       <c r="D146" s="217">
         <v>25</v>
       </c>
-      <c r="E146" s="469"/>
+      <c r="E146" s="493"/>
       <c r="F146" s="193">
         <v>145</v>
       </c>
@@ -14105,17 +14104,17 @@
       <c r="N146" s="300"/>
       <c r="O146" s="388"/>
       <c r="P146" s="387"/>
-      <c r="Q146" s="493"/>
+      <c r="Q146" s="471"/>
       <c r="R146" s="440"/>
       <c r="S146" s="11"/>
       <c r="T146" s="11"/>
-      <c r="U146" s="469"/>
+      <c r="U146" s="493"/>
       <c r="V146" s="291" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="147" spans="1:27" ht="31.9" customHeight="1" thickBot="1">
+    <row r="147" spans="1:27" ht="31.95" customHeight="1" thickBot="1">
       <c r="A147" s="245">
         <v>67</v>
       </c>
@@ -14129,7 +14128,7 @@
       <c r="D147" s="225">
         <v>25</v>
       </c>
-      <c r="E147" s="469"/>
+      <c r="E147" s="493"/>
       <c r="F147" s="153">
         <v>146</v>
       </c>
@@ -14159,19 +14158,19 @@
         <v>7</v>
       </c>
       <c r="P147" s="450"/>
-      <c r="Q147" s="505" t="s">
+      <c r="Q147" s="483" t="s">
         <v>359</v>
       </c>
       <c r="R147" s="451"/>
       <c r="S147" s="11"/>
       <c r="T147" s="11"/>
-      <c r="U147" s="469"/>
+      <c r="U147" s="493"/>
       <c r="V147" s="287" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="31.9" customHeight="1" thickTop="1">
+    <row r="148" spans="1:27" ht="31.95" customHeight="1" thickTop="1">
       <c r="A148" s="254">
         <v>81</v>
       </c>
@@ -14185,7 +14184,7 @@
       <c r="D148" s="217">
         <v>25</v>
       </c>
-      <c r="E148" s="468"/>
+      <c r="E148" s="492"/>
       <c r="F148" s="201">
         <v>147</v>
       </c>
@@ -14213,19 +14212,19 @@
         <v>5</v>
       </c>
       <c r="P148" s="459"/>
-      <c r="Q148" s="506" t="s">
+      <c r="Q148" s="484" t="s">
         <v>392</v>
       </c>
       <c r="R148" s="452"/>
       <c r="S148" s="11"/>
       <c r="T148" s="11"/>
-      <c r="U148" s="468"/>
+      <c r="U148" s="492"/>
       <c r="V148" s="293" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="149" spans="1:27" ht="31.9" customHeight="1">
+    <row r="149" spans="1:27" ht="31.95" customHeight="1">
       <c r="A149" s="255">
         <v>57</v>
       </c>
@@ -14239,7 +14238,7 @@
       <c r="D149" s="217">
         <v>25</v>
       </c>
-      <c r="E149" s="468"/>
+      <c r="E149" s="492"/>
       <c r="F149" s="203">
         <v>148</v>
       </c>
@@ -14265,19 +14264,19 @@
       <c r="N149" s="300"/>
       <c r="O149" s="388"/>
       <c r="P149" s="387"/>
-      <c r="Q149" s="493" t="s">
+      <c r="Q149" s="471" t="s">
         <v>392</v>
       </c>
       <c r="R149" s="440"/>
       <c r="S149" s="11"/>
       <c r="T149" s="11"/>
-      <c r="U149" s="468"/>
+      <c r="U149" s="492"/>
       <c r="V149" s="291" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="150" spans="1:27" ht="31.9" customHeight="1" thickBot="1">
+    <row r="150" spans="1:27" ht="31.95" customHeight="1" thickBot="1">
       <c r="A150" s="256">
         <v>112</v>
       </c>
@@ -14291,7 +14290,7 @@
       <c r="D150" s="217">
         <v>25</v>
       </c>
-      <c r="E150" s="468"/>
+      <c r="E150" s="492"/>
       <c r="F150" s="204">
         <v>149</v>
       </c>
@@ -14317,13 +14316,13 @@
       <c r="N150" s="423"/>
       <c r="O150" s="424"/>
       <c r="P150" s="422"/>
-      <c r="Q150" s="507" t="s">
+      <c r="Q150" s="485" t="s">
         <v>391</v>
       </c>
       <c r="R150" s="453"/>
       <c r="S150" s="11"/>
       <c r="T150" s="11"/>
-      <c r="U150" s="468"/>
+      <c r="U150" s="492"/>
       <c r="V150" s="291" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
@@ -14332,7 +14331,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="151" spans="1:27" ht="31.9" customHeight="1" thickTop="1" thickBot="1">
+    <row r="151" spans="1:27" ht="31.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A151" s="245">
         <v>27</v>
       </c>
@@ -14346,7 +14345,7 @@
       <c r="D151" s="225">
         <v>25</v>
       </c>
-      <c r="E151" s="469"/>
+      <c r="E151" s="493"/>
       <c r="F151" s="170">
         <v>150</v>
       </c>
@@ -14370,13 +14369,13 @@
       <c r="N151" s="303"/>
       <c r="O151" s="426"/>
       <c r="P151" s="425"/>
-      <c r="Q151" s="497" t="s">
+      <c r="Q151" s="475" t="s">
         <v>359</v>
       </c>
       <c r="R151" s="454"/>
       <c r="S151" s="11"/>
       <c r="T151" s="11"/>
-      <c r="U151" s="469"/>
+      <c r="U151" s="493"/>
       <c r="V151" s="287" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
@@ -14388,7 +14387,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="31.9" customHeight="1" thickTop="1">
+    <row r="152" spans="1:27" ht="31.95" customHeight="1" thickTop="1">
       <c r="A152" s="257">
         <v>66</v>
       </c>
@@ -14402,7 +14401,7 @@
       <c r="D152" s="216">
         <v>25</v>
       </c>
-      <c r="E152" s="468"/>
+      <c r="E152" s="492"/>
       <c r="F152" s="206">
         <v>151</v>
       </c>
@@ -14428,13 +14427,13 @@
       <c r="N152" s="428"/>
       <c r="O152" s="429"/>
       <c r="P152" s="427"/>
-      <c r="Q152" s="508" t="s">
+      <c r="Q152" s="486" t="s">
         <v>392</v>
       </c>
       <c r="R152" s="455"/>
       <c r="S152" s="11"/>
       <c r="T152" s="11"/>
-      <c r="U152" s="468"/>
+      <c r="U152" s="492"/>
       <c r="V152" s="292" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
@@ -14447,7 +14446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:27" ht="31.9" customHeight="1" thickBot="1">
+    <row r="153" spans="1:27" ht="31.95" customHeight="1" thickBot="1">
       <c r="A153" s="252">
         <v>70</v>
       </c>
@@ -14461,7 +14460,7 @@
       <c r="D153" s="217">
         <v>25</v>
       </c>
-      <c r="E153" s="468"/>
+      <c r="E153" s="492"/>
       <c r="F153" s="208">
         <v>152</v>
       </c>
@@ -14487,13 +14486,13 @@
       <c r="N153" s="412"/>
       <c r="O153" s="413"/>
       <c r="P153" s="411"/>
-      <c r="Q153" s="503" t="s">
+      <c r="Q153" s="481" t="s">
         <v>359</v>
       </c>
       <c r="R153" s="448"/>
       <c r="S153" s="11"/>
       <c r="T153" s="11"/>
-      <c r="U153" s="468"/>
+      <c r="U153" s="492"/>
       <c r="V153" s="291" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
@@ -14503,7 +14502,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="1:27" ht="31.9" customHeight="1" thickTop="1" thickBot="1">
+    <row r="154" spans="1:27" ht="31.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A154" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -14517,7 +14516,7 @@
       <c r="D154" s="217">
         <v>25</v>
       </c>
-      <c r="E154" s="469"/>
+      <c r="E154" s="493"/>
       <c r="F154" s="200">
         <v>153</v>
       </c>
@@ -14543,7 +14542,7 @@
       <c r="N154" s="301"/>
       <c r="O154" s="401"/>
       <c r="P154" s="400"/>
-      <c r="Q154" s="499" t="s">
+      <c r="Q154" s="477" t="s">
         <v>359</v>
       </c>
       <c r="R154" s="444"/>
@@ -14551,13 +14550,13 @@
       <c r="T154" s="121" t="s">
         <v>343</v>
       </c>
-      <c r="U154" s="469"/>
+      <c r="U154" s="493"/>
       <c r="V154" s="291" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="155" spans="1:27" ht="31.9" customHeight="1">
+    <row r="155" spans="1:27" ht="31.95" customHeight="1">
       <c r="A155" s="245">
         <v>26</v>
       </c>
@@ -14571,7 +14570,7 @@
       <c r="D155" s="217">
         <v>25</v>
       </c>
-      <c r="E155" s="469"/>
+      <c r="E155" s="493"/>
       <c r="F155" s="193">
         <v>154</v>
       </c>
@@ -14595,7 +14594,7 @@
       <c r="N155" s="300"/>
       <c r="O155" s="388"/>
       <c r="P155" s="387"/>
-      <c r="Q155" s="493">
+      <c r="Q155" s="471">
         <v>3</v>
       </c>
       <c r="R155" s="440"/>
@@ -14603,13 +14602,13 @@
       <c r="T155" s="183" t="s">
         <v>345</v>
       </c>
-      <c r="U155" s="469"/>
+      <c r="U155" s="493"/>
       <c r="V155" s="291" t="str">
         <f t="shared" si="7"/>
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="156" spans="1:27" ht="84.4" customHeight="1" thickBot="1">
+    <row r="156" spans="1:27" ht="84.45" customHeight="1" thickBot="1">
       <c r="A156" s="245" t="e">
         <v>#N/A</v>
       </c>
@@ -14641,7 +14640,7 @@
       <c r="N156" s="436"/>
       <c r="O156" s="437"/>
       <c r="P156" s="435"/>
-      <c r="Q156" s="510" t="s">
+      <c r="Q156" s="488" t="s">
         <v>359</v>
       </c>
       <c r="R156" s="457"/>
@@ -14653,36 +14652,48 @@
         <v>VISA_RESUME</v>
       </c>
     </row>
-    <row r="1048561" ht="12.2" customHeight="1"/>
-    <row r="1048562" ht="12.2" customHeight="1"/>
-    <row r="1048563" ht="12.2" customHeight="1"/>
-    <row r="1048564" ht="12.2" customHeight="1"/>
-    <row r="1048565" ht="12.2" customHeight="1"/>
-    <row r="1048566" ht="12.2" customHeight="1"/>
-    <row r="1048567" ht="12.2" customHeight="1"/>
-    <row r="1048568" ht="12.2" customHeight="1"/>
-    <row r="1048569" ht="12.2" customHeight="1"/>
-    <row r="1048570" ht="12.2" customHeight="1"/>
-    <row r="1048571" ht="12.2" customHeight="1"/>
-    <row r="1048572" ht="12.2" customHeight="1"/>
-    <row r="1048573" ht="12.2" customHeight="1"/>
-    <row r="1048574" ht="12.2" customHeight="1"/>
-    <row r="1048575" ht="12.2" customHeight="1"/>
-    <row r="1048576" ht="12.2" customHeight="1"/>
+    <row r="1048561" ht="12.15" customHeight="1"/>
+    <row r="1048562" ht="12.15" customHeight="1"/>
+    <row r="1048563" ht="12.15" customHeight="1"/>
+    <row r="1048564" ht="12.15" customHeight="1"/>
+    <row r="1048565" ht="12.15" customHeight="1"/>
+    <row r="1048566" ht="12.15" customHeight="1"/>
+    <row r="1048567" ht="12.15" customHeight="1"/>
+    <row r="1048568" ht="12.15" customHeight="1"/>
+    <row r="1048569" ht="12.15" customHeight="1"/>
+    <row r="1048570" ht="12.15" customHeight="1"/>
+    <row r="1048571" ht="12.15" customHeight="1"/>
+    <row r="1048572" ht="12.15" customHeight="1"/>
+    <row r="1048573" ht="12.15" customHeight="1"/>
+    <row r="1048574" ht="12.15" customHeight="1"/>
+    <row r="1048575" ht="12.15" customHeight="1"/>
+    <row r="1048576" ht="12.15" customHeight="1"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R156">
     <sortCondition ref="F2:F156"/>
   </sortState>
   <mergeCells count="42">
-    <mergeCell ref="U110:U111"/>
-    <mergeCell ref="U112:U133"/>
-    <mergeCell ref="U134:U155"/>
-    <mergeCell ref="U73:U76"/>
-    <mergeCell ref="U77:U81"/>
-    <mergeCell ref="U82:U91"/>
-    <mergeCell ref="U92:U95"/>
-    <mergeCell ref="U100:U104"/>
-    <mergeCell ref="U105:U108"/>
+    <mergeCell ref="E134:E155"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="E100:E104"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E112:E133"/>
+    <mergeCell ref="E57:E66"/>
+    <mergeCell ref="E67:E72"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E82:E91"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="E40:E47"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="E15:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
     <mergeCell ref="U67:U72"/>
     <mergeCell ref="U2:U8"/>
     <mergeCell ref="U9:U13"/>
@@ -14695,58 +14706,46 @@
     <mergeCell ref="U48:U52"/>
     <mergeCell ref="U53:U56"/>
     <mergeCell ref="U57:U66"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E15:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="E40:E47"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="E57:E66"/>
-    <mergeCell ref="E67:E72"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="E82:E91"/>
-    <mergeCell ref="E134:E155"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="E100:E104"/>
-    <mergeCell ref="E105:E108"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E112:E133"/>
+    <mergeCell ref="U110:U111"/>
+    <mergeCell ref="U112:U133"/>
+    <mergeCell ref="U134:U155"/>
+    <mergeCell ref="U73:U76"/>
+    <mergeCell ref="U77:U81"/>
+    <mergeCell ref="U82:U91"/>
+    <mergeCell ref="U92:U95"/>
+    <mergeCell ref="U100:U104"/>
+    <mergeCell ref="U105:U108"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B9:B156">
-    <cfRule type="cellIs" dxfId="64" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="42" operator="equal">
+      <formula>"m"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="37" operator="equal">
       <formula>"t"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="38" operator="equal">
       <formula>"d"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="40" operator="equal">
-      <formula>"f"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="61" priority="41" operator="equal">
       <formula>"c"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="42" operator="equal">
-      <formula>"m"</formula>
+    <cfRule type="cellIs" dxfId="60" priority="40" operator="equal">
+      <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="cellIs" dxfId="59" priority="73" operator="equal">
-      <formula>"tiene? 0:1"</formula>
+    <cfRule type="cellIs" dxfId="59" priority="76" operator="equal">
+      <formula>"Fecha"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="75" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="74" operator="equal">
       <formula>"delinquency"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="75" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="76" operator="equal">
-      <formula>"Fecha"</formula>
+    <cfRule type="cellIs" dxfId="56" priority="73" operator="equal">
+      <formula>"tiene? 0:1"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="55" priority="77" operator="equal">
       <formula>"Cantidad"</formula>
@@ -14761,20 +14760,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C156">
-    <cfRule type="cellIs" dxfId="52" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="34" operator="equal">
+      <formula>"Fecha"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="35" operator="equal">
+      <formula>"Cantidad"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="31" operator="equal">
       <formula>"tiene? 0:1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="36" operator="equal">
+      <formula>"Monto"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="32" operator="equal">
       <formula>"delinquency"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
-      <formula>"Fecha"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
-      <formula>"Cantidad"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
-      <formula>"Monto"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E15 E25 E28 E31 E34 E40">
@@ -14798,83 +14797,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48 E53 E57 E67 E73 E77 E82 E92 E96:E100 E105 E134">
-    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
+      <formula>"Cantidad"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
       <formula>"tiene? 0:1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="14" operator="equal">
       <formula>"delinquency"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="16" operator="equal">
       <formula>"Fecha"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
-      <formula>"Cantidad"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
       <formula>"Monto"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109:E110">
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+      <formula>"Fecha"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+      <formula>"Cantidad"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
+      <formula>"Monto"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>"tiene? 0:1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>"delinquency"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
-      <formula>"Fecha"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
-      <formula>"Cantidad"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
-      <formula>"Monto"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
-      <formula>"tiene? 0:1"</formula>
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
+      <formula>"Cantidad"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
-      <formula>"delinquency"</formula>
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+      <formula>"Fecha"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
-      <formula>"Fecha"</formula>
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+      <formula>"delinquency"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
-      <formula>"Cantidad"</formula>
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+      <formula>"tiene? 0:1"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>"Monto"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9:U15 U25 U28 U31 U34 U40">
-    <cfRule type="cellIs" dxfId="23" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="108" operator="equal">
+      <formula>"Monto"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="103" operator="equal">
       <formula>"tiene? 0:1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="104" operator="equal">
       <formula>"delinquency"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="105" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="106" operator="equal">
       <formula>"Fecha"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="107" operator="equal">
       <formula>"Cantidad"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="108" operator="equal">
-      <formula>"Monto"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U48 U53 U57 U67 U73 U77 U82 U92 U96:U100 U105 U134">
@@ -14901,20 +14900,20 @@
     <cfRule type="cellIs" dxfId="11" priority="79" operator="equal">
       <formula>"tiene? 0:1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="80" operator="equal">
-      <formula>"delinquency"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="81" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="82" operator="equal">
       <formula>"Fecha"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="83" operator="equal">
       <formula>"Cantidad"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="84" operator="equal">
       <formula>"Monto"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="80" operator="equal">
+      <formula>"delinquency"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U112">
@@ -14981,15 +14980,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="14.4" thickBot="1">
       <c r="A1" s="306" t="s">
         <v>393</v>
       </c>
@@ -15009,7 +15008,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7">
       <c r="A2" s="300">
         <v>201901</v>
       </c>
@@ -15030,7 +15029,7 @@
         <v>0.40789473684210525</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7">
       <c r="A3" s="300">
         <v>201902</v>
       </c>
@@ -15051,7 +15050,7 @@
         <v>0.10526315789473684</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7">
       <c r="A4" s="300">
         <v>201903</v>
       </c>
@@ -15072,7 +15071,7 @@
         <v>6.5789473684210523E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7">
       <c r="A5" s="300">
         <v>201904</v>
       </c>
@@ -15093,7 +15092,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7">
       <c r="A6" s="300">
         <v>201905</v>
       </c>
@@ -15114,7 +15113,7 @@
         <v>4.6052631578947366E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7">
       <c r="A7" s="300">
         <v>201906</v>
       </c>
@@ -15135,7 +15134,7 @@
         <v>4.6052631578947366E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7">
       <c r="A8" s="300">
         <v>201910</v>
       </c>
@@ -15156,7 +15155,7 @@
         <v>3.9473684210526314E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7">
       <c r="A9" s="304">
         <v>202002</v>
       </c>
@@ -15177,7 +15176,7 @@
         <v>3.9473684210526314E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7">
       <c r="A10" s="304">
         <v>202003</v>
       </c>
@@ -15198,7 +15197,7 @@
         <v>2.6315789473684209E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7">
       <c r="A11" s="304">
         <v>202004</v>
       </c>
@@ -15219,7 +15218,7 @@
         <v>1.9736842105263157E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7">
       <c r="A12" s="304">
         <v>202005</v>
       </c>
@@ -15240,7 +15239,7 @@
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7">
       <c r="A13" s="307">
         <v>202006</v>
       </c>
@@ -15261,7 +15260,7 @@
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7">
       <c r="A14" s="304">
         <v>202007</v>
       </c>
@@ -15282,7 +15281,7 @@
         <v>6.5789473684210523E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7">
       <c r="A15" s="304">
         <v>202009</v>
       </c>
@@ -15303,7 +15302,7 @@
         <v>6.5789473684210523E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7">
       <c r="A16" s="304">
         <v>202010</v>
       </c>
@@ -15324,7 +15323,7 @@
         <v>6.5789473684210523E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7">
       <c r="A17" s="304">
         <v>202012</v>
       </c>
@@ -15345,7 +15344,7 @@
         <v>6.5789473684210523E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15">
+    <row r="18" spans="1:7">
       <c r="A18" s="305">
         <v>202102</v>
       </c>
@@ -15366,7 +15365,7 @@
         <v>6.5789473684210523E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7">
       <c r="A19" s="305">
         <v>202103</v>
       </c>
@@ -15387,7 +15386,7 @@
         <v>6.5789473684210523E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7">
       <c r="A20" s="305">
         <v>202105</v>
       </c>
@@ -15408,7 +15407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7">
       <c r="A21" s="305">
         <v>202107</v>
       </c>
@@ -15445,12 +15444,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="2" width="135.25" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" customWidth="1"/>
+    <col min="2" max="2" width="135.19921875" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="35.450000000000003" customHeight="1">
+    <row r="1" spans="1:2" ht="35.4" customHeight="1">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -15514,8 +15513,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="1048575" ht="12.2" customHeight="1"/>
-    <row r="1048576" ht="12.2" customHeight="1"/>
+    <row r="1048575" ht="12.15" customHeight="1"/>
+    <row r="1048576" ht="12.15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
   <headerFooter>
@@ -15533,12 +15532,12 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15">
+    <row r="1" spans="2:4" ht="14.4">
       <c r="B1" s="298" t="s">
         <v>216</v>
       </c>
@@ -15549,7 +15548,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="15">
+    <row r="2" spans="2:4" ht="14.4">
       <c r="B2" s="259" t="s">
         <v>52</v>
       </c>
@@ -15560,7 +15559,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15">
+    <row r="3" spans="2:4" ht="14.4">
       <c r="B3" s="258" t="s">
         <v>40</v>
       </c>
@@ -15571,7 +15570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="297" customFormat="1" ht="15">
+    <row r="4" spans="2:4" s="297" customFormat="1" ht="14.4">
       <c r="B4" s="295" t="s">
         <v>74</v>
       </c>
@@ -15582,7 +15581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15">
+    <row r="5" spans="2:4" ht="14.4">
       <c r="B5" s="258" t="s">
         <v>72</v>
       </c>
@@ -15593,7 +15592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:4" s="297" customFormat="1" ht="15">
+    <row r="6" spans="2:4" s="297" customFormat="1" ht="14.4">
       <c r="B6" s="295" t="s">
         <v>28</v>
       </c>
@@ -15604,7 +15603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15">
+    <row r="7" spans="2:4" ht="14.4">
       <c r="B7" s="258" t="s">
         <v>44</v>
       </c>
@@ -15615,7 +15614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15">
+    <row r="8" spans="2:4" ht="14.4">
       <c r="B8" s="259" t="s">
         <v>50</v>
       </c>
@@ -15626,7 +15625,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15">
+    <row r="9" spans="2:4" ht="14.4">
       <c r="B9" s="258" t="s">
         <v>150</v>
       </c>
@@ -15637,7 +15636,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="2:4" s="297" customFormat="1" ht="15">
+    <row r="10" spans="2:4" s="297" customFormat="1" ht="14.4">
       <c r="B10" s="295" t="s">
         <v>26</v>
       </c>
@@ -15648,7 +15647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15">
+    <row r="11" spans="2:4" ht="14.4">
       <c r="B11" s="258" t="s">
         <v>10</v>
       </c>
@@ -15659,7 +15658,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15">
+    <row r="12" spans="2:4" ht="14.4">
       <c r="B12" s="259" t="s">
         <v>21</v>
       </c>
@@ -15670,7 +15669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15">
+    <row r="13" spans="2:4" ht="14.4">
       <c r="B13" s="258" t="s">
         <v>152</v>
       </c>
@@ -15681,7 +15680,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15">
+    <row r="14" spans="2:4" ht="14.4">
       <c r="B14" s="259" t="s">
         <v>30</v>
       </c>
@@ -15692,7 +15691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15">
+    <row r="15" spans="2:4" ht="14.4">
       <c r="B15" s="258" t="s">
         <v>24</v>
       </c>
@@ -15703,7 +15702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15">
+    <row r="16" spans="2:4" ht="14.4">
       <c r="B16" s="259" t="s">
         <v>32</v>
       </c>
@@ -15714,7 +15713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15">
+    <row r="17" spans="2:4" ht="14.4">
       <c r="B17" s="258" t="s">
         <v>64</v>
       </c>
@@ -15725,7 +15724,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15">
+    <row r="18" spans="2:4" ht="14.4">
       <c r="B18" s="259" t="s">
         <v>153</v>
       </c>
@@ -15736,7 +15735,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15">
+    <row r="19" spans="2:4" ht="14.4">
       <c r="B19" s="258" t="s">
         <v>18</v>
       </c>
@@ -15747,7 +15746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="297" customFormat="1" ht="15">
+    <row r="20" spans="2:4" s="297" customFormat="1" ht="14.4">
       <c r="B20" s="295" t="s">
         <v>110</v>
       </c>
@@ -15758,7 +15757,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15">
+    <row r="21" spans="2:4" ht="14.4">
       <c r="B21" s="258" t="s">
         <v>108</v>
       </c>
